--- a/raw_data/LTC-USD_4h_process.xlsx
+++ b/raw_data/LTC-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>75.80722045898438</v>
+        <v>65.86958312988281</v>
       </c>
       <c r="C2">
-        <v>75.83331298828125</v>
+        <v>66.11997985839844</v>
       </c>
       <c r="D2">
-        <v>74.98458862304688</v>
+        <v>64.84784698486328</v>
       </c>
       <c r="E2">
-        <v>75.83331298828125</v>
+        <v>65.09654235839844</v>
       </c>
       <c r="F2">
-        <v>8033280</v>
+        <v>23483264</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>75.87058258056641</v>
+        <v>65.09893798828125</v>
       </c>
       <c r="C3">
-        <v>76.6168212890625</v>
+        <v>65.81615447998047</v>
       </c>
       <c r="D3">
-        <v>75.44286346435547</v>
+        <v>65.04843902587891</v>
       </c>
       <c r="E3">
-        <v>75.65205383300781</v>
+        <v>65.30168914794922</v>
       </c>
       <c r="F3">
-        <v>14013728</v>
+        <v>15198784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>75.65113830566406</v>
+        <v>65.30128479003906</v>
       </c>
       <c r="C4">
-        <v>76.72081756591797</v>
+        <v>65.86099243164062</v>
       </c>
       <c r="D4">
-        <v>75.65113830566406</v>
+        <v>65.06276702880859</v>
       </c>
       <c r="E4">
-        <v>76.54519653320312</v>
+        <v>65.22856140136719</v>
       </c>
       <c r="F4">
-        <v>63694848</v>
+        <v>26420160</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>76.54493713378906</v>
+        <v>65.22502136230469</v>
       </c>
       <c r="C5">
-        <v>77.43397521972656</v>
+        <v>65.83153533935547</v>
       </c>
       <c r="D5">
-        <v>76.17603302001953</v>
+        <v>65.16971588134766</v>
       </c>
       <c r="E5">
-        <v>77.24886322021484</v>
+        <v>65.16971588134766</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18887552</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>77.24751281738281</v>
+        <v>65.17377471923828</v>
       </c>
       <c r="C6">
-        <v>77.30272674560547</v>
+        <v>65.38321685791016</v>
       </c>
       <c r="D6">
-        <v>74.97953033447266</v>
+        <v>64.81940460205078</v>
       </c>
       <c r="E6">
-        <v>75.12994384765625</v>
+        <v>65.24749755859375</v>
       </c>
       <c r="F6">
-        <v>12770464</v>
+        <v>23605440</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>75.12731170654297</v>
+        <v>65.24754333496094</v>
       </c>
       <c r="C7">
-        <v>76.85385894775391</v>
+        <v>66.58871459960938</v>
       </c>
       <c r="D7">
-        <v>74.72697448730469</v>
+        <v>65.15929412841797</v>
       </c>
       <c r="E7">
-        <v>76.5772705078125</v>
+        <v>66.45298767089844</v>
       </c>
       <c r="F7">
-        <v>24971520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>76.56781005859375</v>
+        <v>66.45163726806641</v>
       </c>
       <c r="C8">
-        <v>77.18074035644531</v>
+        <v>66.63554382324219</v>
       </c>
       <c r="D8">
-        <v>75.67958831787109</v>
+        <v>65.96054840087891</v>
       </c>
       <c r="E8">
-        <v>76.72282409667969</v>
+        <v>66.28439331054688</v>
       </c>
       <c r="F8">
-        <v>9847360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>76.71389007568359</v>
+        <v>66.28437805175781</v>
       </c>
       <c r="C9">
-        <v>77.71273803710938</v>
+        <v>66.95932006835938</v>
       </c>
       <c r="D9">
-        <v>75.32997131347656</v>
+        <v>66.26335906982422</v>
       </c>
       <c r="E9">
-        <v>77.35309600830078</v>
+        <v>66.49005126953125</v>
       </c>
       <c r="F9">
-        <v>47443776</v>
+        <v>5990144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>77.35215759277344</v>
+        <v>66.48836517333984</v>
       </c>
       <c r="C10">
-        <v>77.35490417480469</v>
+        <v>66.74877166748047</v>
       </c>
       <c r="D10">
-        <v>75.60117340087891</v>
+        <v>65.18586730957031</v>
       </c>
       <c r="E10">
-        <v>75.60117340087891</v>
+        <v>65.27376556396484</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>36457600</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>75.60113525390625</v>
+        <v>65.27865600585938</v>
       </c>
       <c r="C11">
-        <v>76.48255157470703</v>
+        <v>65.88082122802734</v>
       </c>
       <c r="D11">
-        <v>75.56069183349609</v>
+        <v>64.97554016113281</v>
       </c>
       <c r="E11">
-        <v>76.3800048828125</v>
+        <v>65.87627410888672</v>
       </c>
       <c r="F11">
-        <v>27063360</v>
+        <v>8649024</v>
       </c>
       <c r="L11">
-        <v>51.86742824596199</v>
+        <v>56.54973269701745</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>76.37580871582031</v>
+        <v>65.87555694580078</v>
       </c>
       <c r="C12">
-        <v>76.90096282958984</v>
+        <v>66.05284881591797</v>
       </c>
       <c r="D12">
-        <v>75.55995178222656</v>
+        <v>65.20210266113281</v>
       </c>
       <c r="E12">
-        <v>75.55995178222656</v>
+        <v>65.20210266113281</v>
       </c>
       <c r="F12">
-        <v>3057824</v>
+        <v>11462784</v>
       </c>
       <c r="L12">
-        <v>44.77593703900403</v>
+        <v>44.83054772610405</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>75.56956481933594</v>
+        <v>65.20355987548828</v>
       </c>
       <c r="C13">
-        <v>75.61329650878906</v>
+        <v>65.68271636962891</v>
       </c>
       <c r="D13">
-        <v>74.05554962158203</v>
+        <v>64.61968994140625</v>
       </c>
       <c r="E13">
-        <v>74.85543823242188</v>
+        <v>64.95868682861328</v>
       </c>
       <c r="F13">
-        <v>20404512</v>
+        <v>6217280</v>
       </c>
       <c r="L13">
-        <v>39.54973357080931</v>
+        <v>41.34980955507384</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>74.85585021972656</v>
+        <v>65.0009765625</v>
       </c>
       <c r="C14">
-        <v>74.92691040039062</v>
+        <v>66.05476379394531</v>
       </c>
       <c r="D14">
-        <v>73.29108428955078</v>
+        <v>64.85224151611328</v>
       </c>
       <c r="E14">
-        <v>73.40525054931641</v>
+        <v>65.78951263427734</v>
       </c>
       <c r="F14">
-        <v>10722144</v>
+        <v>22733312</v>
       </c>
       <c r="L14">
-        <v>31.13442775760112</v>
+        <v>54.81960526535648</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,25 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>73.4019775390625</v>
+        <v>65.78423309326172</v>
       </c>
       <c r="C15">
-        <v>73.78713989257812</v>
+        <v>66.08255004882812</v>
       </c>
       <c r="D15">
-        <v>72.64119720458984</v>
+        <v>65.38455200195312</v>
       </c>
       <c r="E15">
-        <v>72.96608734130859</v>
+        <v>66.01805877685547</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1632448</v>
       </c>
       <c r="L15">
-        <v>29.03002885193222</v>
-      </c>
-      <c r="N15" t="s">
-        <v>195</v>
+        <v>57.81765441582387</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1312,5110 +1309,5086 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>72.96808624267578</v>
+        <v>66.02498626708984</v>
       </c>
       <c r="C16">
-        <v>73.95938110351562</v>
+        <v>66.10518646240234</v>
       </c>
       <c r="D16">
-        <v>72.96808624267578</v>
+        <v>65.43122100830078</v>
       </c>
       <c r="E16">
-        <v>73.86801910400391</v>
+        <v>65.48281097412109</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.61612413270276</v>
+        <v>49.21352859856412</v>
       </c>
       <c r="M16">
-        <v>39.71608096700933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>50.46661765676138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>73.8651123046875</v>
+        <v>65.48619079589844</v>
       </c>
       <c r="C17">
-        <v>74.00729370117188</v>
+        <v>65.55125427246094</v>
       </c>
       <c r="D17">
-        <v>72.87281799316406</v>
+        <v>63.63589477539063</v>
       </c>
       <c r="E17">
-        <v>73.15883636474609</v>
+        <v>64.51058197021484</v>
       </c>
       <c r="F17">
-        <v>850016</v>
+        <v>31608192</v>
       </c>
       <c r="L17">
-        <v>34.49462223927478</v>
+        <v>37.73762177954237</v>
       </c>
       <c r="M17">
-        <v>36.38807952366658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>40.69677207241289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>73.15831756591797</v>
+        <v>64.51324462890625</v>
       </c>
       <c r="C18">
-        <v>73.74769592285156</v>
+        <v>65.14229583740234</v>
       </c>
       <c r="D18">
-        <v>73.09699249267578</v>
+        <v>64.31570434570312</v>
       </c>
       <c r="E18">
-        <v>73.66691589355469</v>
+        <v>65.12570190429688</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>39.68323132332353</v>
+        <v>46.60065170873025</v>
       </c>
       <c r="M18">
-        <v>40.2509182554007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>47.60756662812808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>73.66346740722656</v>
+        <v>65.12841033935547</v>
       </c>
       <c r="C19">
-        <v>73.77583312988281</v>
+        <v>65.63593292236328</v>
       </c>
       <c r="D19">
-        <v>72.97441101074219</v>
+        <v>65.07815551757812</v>
       </c>
       <c r="E19">
-        <v>73.29092407226562</v>
+        <v>65.58992767333984</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.22826246797183</v>
+        <v>52.35854358805768</v>
       </c>
       <c r="M19">
-        <v>38.39289838618514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>52.14042942035831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>73.29538726806641</v>
+        <v>65.58177947998047</v>
       </c>
       <c r="C20">
-        <v>73.46879577636719</v>
+        <v>65.839111328125</v>
       </c>
       <c r="D20">
-        <v>72.98922729492188</v>
+        <v>65.46360015869141</v>
       </c>
       <c r="E20">
-        <v>73.31597137451172</v>
+        <v>65.69313049316406</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.51794967151292</v>
+        <v>53.60958208932258</v>
       </c>
       <c r="M20">
-        <v>38.59624490131068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>53.11164579394004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>73.30585479736328</v>
+        <v>65.69404602050781</v>
       </c>
       <c r="C21">
-        <v>73.3349609375</v>
+        <v>65.71688079833984</v>
       </c>
       <c r="D21">
-        <v>72.44013214111328</v>
+        <v>65.42031860351562</v>
       </c>
       <c r="E21">
-        <v>72.78136444091797</v>
+        <v>65.67378997802734</v>
       </c>
       <c r="F21">
-        <v>1302048</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>74.99562492370606</v>
+        <v>65.52328910827637</v>
       </c>
       <c r="L21">
-        <v>33.77521192653354</v>
+        <v>53.31442084137755</v>
       </c>
       <c r="M21">
-        <v>35.87448421696777</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>52.89501355528708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>72.78274536132812</v>
+        <v>65.67817687988281</v>
       </c>
       <c r="C22">
-        <v>73.40027618408203</v>
+        <v>65.86818695068359</v>
       </c>
       <c r="D22">
-        <v>72.72509002685547</v>
+        <v>65.51020812988281</v>
       </c>
       <c r="E22">
-        <v>73.23896026611328</v>
+        <v>65.70475006103516</v>
       </c>
       <c r="F22">
-        <v>917696</v>
+        <v>404160</v>
       </c>
       <c r="G22">
-        <v>74.91197422572544</v>
+        <v>65.53193010602679</v>
       </c>
       <c r="H22">
-        <v>74.86590728759765</v>
+        <v>65.5536994934082</v>
       </c>
       <c r="L22">
-        <v>39.57932497155131</v>
+        <v>53.77277517276012</v>
       </c>
       <c r="M22">
-        <v>39.78844843873476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>53.22392265555461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>73.24325561523438</v>
+        <v>65.70425415039062</v>
       </c>
       <c r="C23">
-        <v>74.01591491699219</v>
+        <v>66.2977294921875</v>
       </c>
       <c r="D23">
-        <v>73.20206451416016</v>
+        <v>65.70425415039062</v>
       </c>
       <c r="E23">
-        <v>73.94179534912109</v>
+        <v>65.87601470947266</v>
       </c>
       <c r="F23">
-        <v>3922912</v>
+        <v>17184</v>
       </c>
       <c r="G23">
-        <v>74.82377614603413</v>
+        <v>65.56321052452186</v>
       </c>
       <c r="H23">
-        <v>74.78039436340332</v>
+        <v>65.58241577148438</v>
       </c>
       <c r="L23">
-        <v>47.52596668509168</v>
+        <v>56.4345939741398</v>
       </c>
       <c r="M23">
-        <v>45.30987104509138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>55.09195111180736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>73.93733215332031</v>
+        <v>65.87712097167969</v>
       </c>
       <c r="C24">
-        <v>74.10780334472656</v>
+        <v>66.02303314208984</v>
       </c>
       <c r="D24">
-        <v>73.87107086181641</v>
+        <v>65.41442108154297</v>
       </c>
       <c r="E24">
-        <v>73.94862365722656</v>
+        <v>65.47899627685547</v>
       </c>
       <c r="F24">
-        <v>834336</v>
+        <v>2346928</v>
       </c>
       <c r="G24">
-        <v>74.7442168288698</v>
+        <v>65.55555468382491</v>
       </c>
       <c r="H24">
-        <v>74.65056571960449</v>
+        <v>65.59493751525879</v>
       </c>
       <c r="L24">
-        <v>47.60129024765192</v>
+        <v>49.06641067634146</v>
       </c>
       <c r="M24">
-        <v>45.36229237094772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>50.09733683041674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>73.94593811035156</v>
+        <v>65.48004913330078</v>
       </c>
       <c r="C25">
-        <v>74.16226196289062</v>
+        <v>65.74533081054688</v>
       </c>
       <c r="D25">
-        <v>73.88226318359375</v>
+        <v>64.99187469482422</v>
       </c>
       <c r="E25">
-        <v>73.90286254882812</v>
+        <v>65.10018157958984</v>
       </c>
       <c r="F25">
-        <v>1194208</v>
+        <v>55952</v>
       </c>
       <c r="G25">
-        <v>74.66773007613874</v>
+        <v>65.51415712889445</v>
       </c>
       <c r="H25">
-        <v>74.48326568603515</v>
+        <v>65.59146080017089</v>
       </c>
       <c r="L25">
-        <v>47.09164704672488</v>
+        <v>43.03516327167799</v>
       </c>
       <c r="M25">
-        <v>45.0506416441597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>45.82813381898046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>73.90557861328125</v>
+        <v>65.09812164306641</v>
       </c>
       <c r="C26">
-        <v>74.00240325927734</v>
+        <v>65.37096405029297</v>
       </c>
       <c r="D26">
-        <v>72.54603576660156</v>
+        <v>64.62725830078125</v>
       </c>
       <c r="E26">
-        <v>72.79486846923828</v>
+        <v>65.34892272949219</v>
       </c>
       <c r="F26">
-        <v>18027104</v>
+        <v>5179264</v>
       </c>
       <c r="G26">
-        <v>74.49746993005688</v>
+        <v>65.49913581985788</v>
       </c>
       <c r="H26">
-        <v>74.36651191711425</v>
+        <v>65.59653205871582</v>
       </c>
       <c r="L26">
-        <v>36.45891864034694</v>
+        <v>47.77711425593471</v>
       </c>
       <c r="M26">
-        <v>38.20627272937184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>48.90705522172251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>72.80094909667969</v>
+        <v>65.34947967529297</v>
       </c>
       <c r="C27">
-        <v>73.35000610351562</v>
+        <v>65.38942718505859</v>
       </c>
       <c r="D27">
-        <v>72.65940856933594</v>
+        <v>63.96206283569336</v>
       </c>
       <c r="E27">
-        <v>72.71089935302734</v>
+        <v>64.25530242919922</v>
       </c>
       <c r="F27">
-        <v>4503584</v>
+        <v>21116368</v>
       </c>
       <c r="G27">
-        <v>74.33505442305419</v>
+        <v>65.38606005707072</v>
       </c>
       <c r="H27">
-        <v>74.17319335937501</v>
+        <v>65.48664779663086</v>
       </c>
       <c r="L27">
-        <v>35.77033218066441</v>
+        <v>33.84274686008209</v>
       </c>
       <c r="M27">
-        <v>37.73834146322724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>38.53652494389048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>72.71417236328125</v>
+        <v>64.25442504882812</v>
       </c>
       <c r="C28">
-        <v>73.21461486816406</v>
+        <v>64.44021606445312</v>
       </c>
       <c r="D28">
-        <v>72.25209808349609</v>
+        <v>61.70838928222656</v>
       </c>
       <c r="E28">
-        <v>73.20796203613281</v>
+        <v>62.50074005126953</v>
       </c>
       <c r="F28">
-        <v>3631264</v>
+        <v>73611824</v>
       </c>
       <c r="G28">
-        <v>74.23259147878861</v>
+        <v>65.12375823836152</v>
       </c>
       <c r="H28">
-        <v>73.99745025634766</v>
+        <v>65.29746513366699</v>
       </c>
       <c r="L28">
-        <v>42.94633121579242</v>
+        <v>22.1715011378223</v>
       </c>
       <c r="M28">
-        <v>42.24748977359965</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>28.2036408398689</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>73.20597076416016</v>
+        <v>62.50107192993164</v>
       </c>
       <c r="C29">
-        <v>73.44866180419922</v>
+        <v>64.748291015625</v>
       </c>
       <c r="D29">
-        <v>73.08047485351562</v>
+        <v>62.42370223999024</v>
       </c>
       <c r="E29">
-        <v>73.27413940429688</v>
+        <v>64.7225341796875</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>38409472</v>
       </c>
       <c r="G29">
-        <v>74.14545947201663</v>
+        <v>65.0872833239366</v>
       </c>
       <c r="H29">
-        <v>73.79350242614746</v>
+        <v>65.2090892791748</v>
       </c>
       <c r="L29">
-        <v>43.88534899696538</v>
+        <v>47.81133944902155</v>
       </c>
       <c r="M29">
-        <v>42.84101794268902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>47.42707046970163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>73.26992797851562</v>
+        <v>64.71427154541016</v>
       </c>
       <c r="C30">
-        <v>73.73377227783203</v>
+        <v>64.92206573486328</v>
       </c>
       <c r="D30">
-        <v>73.26126098632812</v>
+        <v>64.07765960693359</v>
       </c>
       <c r="E30">
-        <v>73.73360443115234</v>
+        <v>64.61255645751953</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>26408224</v>
       </c>
       <c r="G30">
-        <v>74.10801810466532</v>
+        <v>65.0441263360805</v>
       </c>
       <c r="H30">
-        <v>73.70012397766114</v>
+        <v>65.17602882385253</v>
       </c>
       <c r="L30">
-        <v>50.27739124213054</v>
+        <v>46.9500169150464</v>
       </c>
       <c r="M30">
-        <v>46.91980149910247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>46.75967156143951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>73.73318481445312</v>
+        <v>64.61502075195312</v>
       </c>
       <c r="C31">
-        <v>74.27164459228516</v>
+        <v>65.90403747558594</v>
       </c>
       <c r="D31">
-        <v>73.47127532958984</v>
+        <v>64.61502075195312</v>
       </c>
       <c r="E31">
-        <v>74.17825317382812</v>
+        <v>65.77619934082031</v>
       </c>
       <c r="F31">
-        <v>7109520</v>
+        <v>47075488</v>
       </c>
       <c r="G31">
-        <v>74.11440311095285</v>
+        <v>65.11067842742048</v>
       </c>
       <c r="H31">
-        <v>73.59003639221191</v>
+        <v>65.17102508544922</v>
       </c>
       <c r="I31">
-        <v>74.49481557210287</v>
+        <v>65.32806599934896</v>
       </c>
       <c r="L31">
-        <v>55.76346456464753</v>
+        <v>56.31726887214578</v>
       </c>
       <c r="M31">
-        <v>50.59409878396593</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>54.11686181742078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>74.17848968505859</v>
+        <v>65.77438354492188</v>
       </c>
       <c r="C32">
-        <v>74.73192596435547</v>
+        <v>67.18073272705078</v>
       </c>
       <c r="D32">
-        <v>74.03885650634766</v>
+        <v>65.40338134765625</v>
       </c>
       <c r="E32">
-        <v>74.73192596435547</v>
+        <v>67.17333984375</v>
       </c>
       <c r="F32">
-        <v>192736</v>
+        <v>46447456</v>
       </c>
       <c r="G32">
-        <v>74.17054155217127</v>
+        <v>65.29819310163225</v>
       </c>
       <c r="H32">
-        <v>73.54863510131835</v>
+        <v>65.26958694458008</v>
       </c>
       <c r="I32">
-        <v>74.45810267130534</v>
+        <v>65.39729258219401</v>
       </c>
       <c r="L32">
-        <v>61.68536414705462</v>
+        <v>64.72950406027356</v>
       </c>
       <c r="M32">
-        <v>54.79063483399587</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>61.07244347585129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>74.72974395751953</v>
+        <v>67.18376922607422</v>
       </c>
       <c r="C33">
-        <v>75.80821990966797</v>
+        <v>68.30154418945312</v>
       </c>
       <c r="D33">
-        <v>74.68613433837891</v>
+        <v>66.84477996826172</v>
       </c>
       <c r="E33">
-        <v>75.17363739013672</v>
+        <v>67.80672454833984</v>
       </c>
       <c r="F33">
-        <v>37870096</v>
+        <v>22958112</v>
       </c>
       <c r="G33">
-        <v>74.26173208289539</v>
+        <v>65.52624141496931</v>
       </c>
       <c r="H33">
-        <v>73.56454505920411</v>
+        <v>65.4119888305664</v>
       </c>
       <c r="I33">
-        <v>74.44215545654296</v>
+        <v>65.48079376220703</v>
       </c>
       <c r="L33">
-        <v>65.79503514663152</v>
+        <v>67.88382215860211</v>
       </c>
       <c r="M33">
-        <v>57.86546064670151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>63.75495246114421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>75.17354583740234</v>
+        <v>67.81297302246094</v>
       </c>
       <c r="C34">
-        <v>75.20844268798828</v>
+        <v>67.83530426025391</v>
       </c>
       <c r="D34">
-        <v>74.66844177246094</v>
+        <v>66.82408905029297</v>
       </c>
       <c r="E34">
-        <v>74.79228210449219</v>
+        <v>66.92632293701172</v>
       </c>
       <c r="F34">
-        <v>13815264</v>
+        <v>1598400</v>
       </c>
       <c r="G34">
-        <v>74.30996390304055</v>
+        <v>65.65352155333679</v>
       </c>
       <c r="H34">
-        <v>73.63389663696289</v>
+        <v>65.46882934570313</v>
       </c>
       <c r="I34">
-        <v>74.38372497558593</v>
+        <v>65.53738581339518</v>
       </c>
       <c r="L34">
-        <v>59.58721533109063</v>
+        <v>59.5550952082352</v>
       </c>
       <c r="M34">
-        <v>54.423883880925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>57.79338933901264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>74.78131866455078</v>
+        <v>66.93055725097656</v>
       </c>
       <c r="C35">
-        <v>75.46821594238281</v>
+        <v>67.40463256835938</v>
       </c>
       <c r="D35">
-        <v>74.70780944824219</v>
+        <v>66.77477264404297</v>
       </c>
       <c r="E35">
-        <v>74.87028503417969</v>
+        <v>66.94132995605469</v>
       </c>
       <c r="F35">
-        <v>24539360</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>74.36090218768958</v>
+        <v>65.77059504449296</v>
       </c>
       <c r="H35">
-        <v>73.72910652160644</v>
+        <v>65.51499290466309</v>
       </c>
       <c r="I35">
-        <v>74.30443903605143</v>
+        <v>65.59643961588542</v>
       </c>
       <c r="L35">
-        <v>60.44597246515659</v>
+        <v>59.65002918845903</v>
       </c>
       <c r="M35">
-        <v>55.01325445731902</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>57.86571295944925</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>74.86888885498047</v>
+        <v>66.94336700439453</v>
       </c>
       <c r="C36">
-        <v>74.96073150634766</v>
+        <v>67.09529876708984</v>
       </c>
       <c r="D36">
-        <v>73.33051300048828</v>
+        <v>65.93405914306641</v>
       </c>
       <c r="E36">
-        <v>73.53748321533203</v>
+        <v>65.95240783691406</v>
       </c>
       <c r="F36">
-        <v>32795680</v>
+        <v>4429152</v>
       </c>
       <c r="G36">
-        <v>74.28604591747525</v>
+        <v>65.78712348016761</v>
       </c>
       <c r="H36">
-        <v>73.71257972717285</v>
+        <v>65.53847274780273</v>
       </c>
       <c r="I36">
-        <v>74.25135701497396</v>
+        <v>65.61993662516277</v>
       </c>
       <c r="L36">
-        <v>42.91609260935794</v>
+        <v>50.80872472719093</v>
       </c>
       <c r="M36">
-        <v>44.43890158779303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>51.59187455161836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>73.53427886962891</v>
+        <v>65.97625732421875</v>
       </c>
       <c r="C37">
-        <v>73.56490325927734</v>
+        <v>66.08554840087891</v>
       </c>
       <c r="D37">
-        <v>73.06146240234375</v>
+        <v>64.93534851074219</v>
       </c>
       <c r="E37">
-        <v>73.15217590332031</v>
+        <v>65.13673400878906</v>
       </c>
       <c r="F37">
-        <v>13524128</v>
+        <v>20606560</v>
       </c>
       <c r="G37">
-        <v>74.18296682527934</v>
+        <v>65.72799716458773</v>
       </c>
       <c r="H37">
-        <v>73.71224670410156</v>
+        <v>65.56978034973145</v>
       </c>
       <c r="I37">
-        <v>74.13718719482422</v>
+        <v>65.57606150309245</v>
       </c>
       <c r="L37">
-        <v>39.2171172857647</v>
+        <v>44.6656437176356</v>
       </c>
       <c r="M37">
-        <v>41.92970534191385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>47.05976028521321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>73.15668487548828</v>
+        <v>65.12599182128906</v>
       </c>
       <c r="C38">
-        <v>73.42172241210938</v>
+        <v>66.35513305664062</v>
       </c>
       <c r="D38">
-        <v>72.70101928710938</v>
+        <v>64.90986633300781</v>
       </c>
       <c r="E38">
-        <v>72.98341369628906</v>
+        <v>65.80316925048828</v>
       </c>
       <c r="F38">
-        <v>12020032</v>
+        <v>7294976</v>
       </c>
       <c r="G38">
-        <v>74.07391654082568</v>
+        <v>65.73483099057869</v>
       </c>
       <c r="H38">
-        <v>73.67807159423828</v>
+        <v>65.60365371704101</v>
       </c>
       <c r="I38">
-        <v>74.01254018147786</v>
+        <v>65.56002070109049</v>
       </c>
       <c r="L38">
-        <v>37.61942237692316</v>
+        <v>50.20004732434485</v>
       </c>
       <c r="M38">
-        <v>40.84195198386528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>50.8581307942907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>72.98516845703125</v>
+        <v>65.79874420166016</v>
       </c>
       <c r="C39">
-        <v>73.57327270507812</v>
+        <v>66.96669006347656</v>
       </c>
       <c r="D39">
-        <v>72.98516845703125</v>
+        <v>65.00833892822266</v>
       </c>
       <c r="E39">
-        <v>73.16657257080078</v>
+        <v>66.94773101806641</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>64162816</v>
       </c>
       <c r="G39">
-        <v>73.99143072536887</v>
+        <v>65.84509462944121</v>
       </c>
       <c r="H39">
-        <v>73.67185401916504</v>
+        <v>65.67154388427734</v>
       </c>
       <c r="I39">
-        <v>73.87298940022787</v>
+        <v>65.57527669270833</v>
       </c>
       <c r="L39">
-        <v>40.57532609473538</v>
+        <v>58.26513014561149</v>
       </c>
       <c r="M39">
-        <v>42.58290593534503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>56.61535840214189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>73.17034149169922</v>
+        <v>66.95326995849609</v>
       </c>
       <c r="C40">
-        <v>73.56453704833984</v>
+        <v>67.57589721679688</v>
       </c>
       <c r="D40">
-        <v>73.08364868164062</v>
+        <v>66.80397796630859</v>
       </c>
       <c r="E40">
-        <v>73.09169006347656</v>
+        <v>67.5601806640625</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>994816</v>
       </c>
       <c r="G40">
-        <v>73.9096361197423</v>
+        <v>66.0010115416795</v>
       </c>
       <c r="H40">
-        <v>73.66063995361328</v>
+        <v>65.76489639282227</v>
       </c>
       <c r="I40">
-        <v>73.78933995564779</v>
+        <v>65.65149052937825</v>
       </c>
       <c r="L40">
-        <v>39.7098714618721</v>
+        <v>61.97246451459221</v>
       </c>
       <c r="M40">
-        <v>42.0382092270274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>59.35908623069226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>73.09747314453125</v>
+        <v>67.55976104736328</v>
       </c>
       <c r="C41">
-        <v>73.50005340576172</v>
+        <v>67.76787567138672</v>
       </c>
       <c r="D41">
-        <v>71.87000274658203</v>
+        <v>66.61318969726562</v>
       </c>
       <c r="E41">
-        <v>71.88776397705078</v>
+        <v>66.72959136962891</v>
       </c>
       <c r="F41">
-        <v>22646528</v>
+        <v>2883360</v>
       </c>
       <c r="G41">
-        <v>73.72582956131581</v>
+        <v>66.06724607149309</v>
       </c>
       <c r="H41">
-        <v>73.61595993041992</v>
+        <v>65.81768646240235</v>
       </c>
       <c r="I41">
-        <v>73.6395985921224</v>
+        <v>65.67993443806967</v>
       </c>
       <c r="L41">
-        <v>28.65498212158992</v>
+        <v>54.5758697912706</v>
       </c>
       <c r="M41">
-        <v>34.41595526624219</v>
-      </c>
-      <c r="N41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>54.33999348761344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>71.87877655029297</v>
+        <v>66.73117065429688</v>
       </c>
       <c r="C42">
-        <v>71.93238067626953</v>
+        <v>67.71854400634766</v>
       </c>
       <c r="D42">
-        <v>63.04788208007812</v>
+        <v>66.51508331298828</v>
       </c>
       <c r="E42">
-        <v>65.83940124511719</v>
+        <v>67.10408782958984</v>
       </c>
       <c r="F42">
-        <v>348413888</v>
+        <v>20285792</v>
       </c>
       <c r="G42">
-        <v>73.00888153257047</v>
+        <v>66.16150441313825</v>
       </c>
       <c r="H42">
-        <v>73.24598197937011</v>
+        <v>65.88765335083008</v>
       </c>
       <c r="I42">
-        <v>73.31558024088541</v>
+        <v>65.7433339436849</v>
       </c>
       <c r="L42">
-        <v>11.13495285391424</v>
+        <v>57.16889221864992</v>
       </c>
       <c r="M42">
-        <v>17.37316223640966</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>56.14071133343103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>65.86958312988281</v>
+        <v>67.13468933105469</v>
       </c>
       <c r="C43">
-        <v>66.11997985839844</v>
+        <v>67.20857238769531</v>
       </c>
       <c r="D43">
-        <v>64.84784698486328</v>
+        <v>65.40641021728516</v>
       </c>
       <c r="E43">
-        <v>65.09654235839844</v>
+        <v>67.07986450195312</v>
       </c>
       <c r="F43">
-        <v>48336448</v>
+        <v>1522304</v>
       </c>
       <c r="G43">
-        <v>72.2895779712821</v>
+        <v>66.2449916939396</v>
       </c>
       <c r="H43">
-        <v>72.80371932983398</v>
+        <v>65.94784584045411</v>
       </c>
       <c r="I43">
-        <v>72.9902837117513</v>
+        <v>65.81403986612956</v>
       </c>
       <c r="L43">
-        <v>10.26754690223343</v>
+        <v>56.93239951283132</v>
       </c>
       <c r="M43">
-        <v>16.30518995314609</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>55.98690757456799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>65.09893798828125</v>
+        <v>67.06869506835938</v>
       </c>
       <c r="C44">
-        <v>65.81615447998047</v>
+        <v>68.10357666015625</v>
       </c>
       <c r="D44">
-        <v>65.04843902587891</v>
+        <v>66.87351226806641</v>
       </c>
       <c r="E44">
-        <v>65.30168914794922</v>
+        <v>68.06142425537109</v>
       </c>
       <c r="F44">
-        <v>15198784</v>
+        <v>3790112</v>
       </c>
       <c r="G44">
-        <v>71.6543153509791</v>
+        <v>66.410121926797</v>
       </c>
       <c r="H44">
-        <v>72.37137260437012</v>
+        <v>66.07696723937988</v>
       </c>
       <c r="I44">
-        <v>72.7201649983724</v>
+        <v>65.88977025349935</v>
       </c>
       <c r="L44">
-        <v>12.38790400651126</v>
+        <v>63.76547221174285</v>
       </c>
       <c r="M44">
-        <v>17.80782890990197</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>60.68686901247438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>65.30128479003906</v>
+        <v>68.05733489990234</v>
       </c>
       <c r="C45">
-        <v>65.86099243164062</v>
+        <v>71.03638458251953</v>
       </c>
       <c r="D45">
-        <v>65.06276702880859</v>
+        <v>67.23722839355469</v>
       </c>
       <c r="E45">
-        <v>65.22856140136719</v>
+        <v>69.86817932128906</v>
       </c>
       <c r="F45">
-        <v>26420160</v>
+        <v>83842592</v>
       </c>
       <c r="G45">
-        <v>71.07015590101439</v>
+        <v>66.72449078084173</v>
       </c>
       <c r="H45">
-        <v>71.93765754699707</v>
+        <v>66.31536712646485</v>
       </c>
       <c r="I45">
-        <v>72.46224746704101</v>
+        <v>66.01810760498047</v>
       </c>
       <c r="L45">
-        <v>12.27161698434469</v>
+        <v>72.72624338267262</v>
       </c>
       <c r="M45">
-        <v>17.6859338063536</v>
-      </c>
-      <c r="N45" t="s">
+        <v>67.55485436646561</v>
+      </c>
+      <c r="O45" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>65.22502136230469</v>
+        <v>69.91801452636719</v>
       </c>
       <c r="C46">
-        <v>65.83153533935547</v>
+        <v>71.43589782714844</v>
       </c>
       <c r="D46">
-        <v>65.16971588134766</v>
+        <v>69.73507690429688</v>
       </c>
       <c r="E46">
-        <v>65.16971588134766</v>
+        <v>71.25461578369141</v>
       </c>
       <c r="F46">
-        <v>18887552</v>
+        <v>43879328</v>
       </c>
       <c r="G46">
-        <v>70.53375226286286</v>
+        <v>67.13632032655534</v>
       </c>
       <c r="H46">
-        <v>71.55639991760253</v>
+        <v>66.6106517791748</v>
       </c>
       <c r="I46">
-        <v>72.1723040262858</v>
+        <v>66.21050109863282</v>
       </c>
       <c r="L46">
-        <v>12.1682114218006</v>
+        <v>77.52451716271669</v>
       </c>
       <c r="M46">
-        <v>17.58164189813429</v>
-      </c>
-      <c r="N46" t="s">
+        <v>71.64802968118562</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>65.17377471923828</v>
+        <v>71.271728515625</v>
       </c>
       <c r="C47">
-        <v>65.38321685791016</v>
+        <v>71.53230285644531</v>
       </c>
       <c r="D47">
-        <v>64.81940460205078</v>
+        <v>70.02751922607422</v>
       </c>
       <c r="E47">
-        <v>65.24749755859375</v>
+        <v>71.12767791748047</v>
       </c>
       <c r="F47">
-        <v>23605440</v>
+        <v>34708928</v>
       </c>
       <c r="G47">
-        <v>70.05318365338385</v>
+        <v>67.49917101663944</v>
       </c>
       <c r="H47">
-        <v>71.18322982788087</v>
+        <v>66.95427055358887</v>
       </c>
       <c r="I47">
-        <v>71.90859273274739</v>
+        <v>66.43107096354167</v>
       </c>
       <c r="L47">
-        <v>13.25514314844428</v>
+        <v>76.14469392845633</v>
       </c>
       <c r="M47">
-        <v>18.26770630333755</v>
-      </c>
-      <c r="N47" t="s">
+        <v>70.76774752898835</v>
+      </c>
+      <c r="O47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>65.24754333496094</v>
+        <v>71.12501525878906</v>
       </c>
       <c r="C48">
-        <v>66.58871459960938</v>
+        <v>73.01081085205078</v>
       </c>
       <c r="D48">
-        <v>65.15929412841797</v>
+        <v>70.85032653808594</v>
       </c>
       <c r="E48">
-        <v>66.45298767089844</v>
+        <v>72.95066070556641</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>44695040</v>
       </c>
       <c r="G48">
-        <v>69.72589310952154</v>
+        <v>67.99476098836007</v>
       </c>
       <c r="H48">
-        <v>70.84548110961914</v>
+        <v>67.47676658630371</v>
       </c>
       <c r="I48">
-        <v>71.66812845865886</v>
+        <v>66.69190292358398</v>
       </c>
       <c r="L48">
-        <v>28.65022545993003</v>
+        <v>81.47246850125097</v>
       </c>
       <c r="M48">
-        <v>28.23797064292801</v>
-      </c>
-      <c r="N48" t="s">
+        <v>75.43544412890429</v>
+      </c>
+      <c r="O48" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>66.45163726806641</v>
+        <v>72.97714233398438</v>
       </c>
       <c r="C49">
-        <v>66.63554382324219</v>
+        <v>74.51087951660156</v>
       </c>
       <c r="D49">
-        <v>65.96054840087891</v>
+        <v>71.73812866210938</v>
       </c>
       <c r="E49">
-        <v>66.28439331054688</v>
+        <v>71.88223266601562</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>131601152</v>
       </c>
       <c r="G49">
-        <v>69.41302949143292</v>
+        <v>68.34816750451057</v>
       </c>
       <c r="H49">
-        <v>70.49599380493164</v>
+        <v>67.83475151062012</v>
       </c>
       <c r="I49">
-        <v>71.43457743326823</v>
+        <v>66.90164642333984</v>
       </c>
       <c r="L49">
-        <v>27.87194265885929</v>
+        <v>71.01500828568973</v>
       </c>
       <c r="M49">
-        <v>27.72851811677593</v>
-      </c>
-      <c r="N49" t="s">
+        <v>68.52888988567862</v>
+      </c>
+      <c r="O49" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>66.28437805175781</v>
+        <v>71.92097473144531</v>
       </c>
       <c r="C50">
-        <v>66.95932006835938</v>
+        <v>72.43112945556641</v>
       </c>
       <c r="D50">
-        <v>66.26335906982422</v>
+        <v>70.90496826171875</v>
       </c>
       <c r="E50">
-        <v>66.49005126953125</v>
+        <v>72.15385437011719</v>
       </c>
       <c r="F50">
-        <v>5990144</v>
+        <v>33698944</v>
       </c>
       <c r="G50">
-        <v>69.14730419853277</v>
+        <v>68.69413903774753</v>
       </c>
       <c r="H50">
-        <v>70.13381614685059</v>
+        <v>68.21181640624999</v>
       </c>
       <c r="I50">
-        <v>71.20704676310221</v>
+        <v>67.11700388590495</v>
       </c>
       <c r="L50">
-        <v>30.46416969013417</v>
+        <v>72.04137570876591</v>
       </c>
       <c r="M50">
-        <v>29.401731949761</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>69.29846314256228</v>
+      </c>
+      <c r="O50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>66.48836517333984</v>
+        <v>72.14659881591797</v>
       </c>
       <c r="C51">
-        <v>66.74877166748047</v>
+        <v>72.41790008544922</v>
       </c>
       <c r="D51">
-        <v>65.18586730957031</v>
+        <v>71.13356018066406</v>
       </c>
       <c r="E51">
-        <v>65.27376556396484</v>
+        <v>71.99178314208984</v>
       </c>
       <c r="F51">
-        <v>36457600</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>68.79516432266296</v>
+        <v>68.99392486541501</v>
       </c>
       <c r="H51">
-        <v>69.68859176635742</v>
+        <v>68.52259559631348</v>
       </c>
       <c r="I51">
-        <v>70.95679346720378</v>
+        <v>67.32760365804036</v>
       </c>
       <c r="L51">
-        <v>24.58537557649885</v>
+        <v>70.36873223243943</v>
       </c>
       <c r="M51">
-        <v>25.6234311095081</v>
-      </c>
-      <c r="N51" t="s">
+        <v>68.22640939981589</v>
+      </c>
+      <c r="O51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>65.27865600585938</v>
+        <v>71.97541809082031</v>
       </c>
       <c r="C52">
-        <v>65.88082122802734</v>
+        <v>72.67713928222656</v>
       </c>
       <c r="D52">
-        <v>64.97554016113281</v>
+        <v>70.68125915527344</v>
       </c>
       <c r="E52">
-        <v>65.87627410888672</v>
+        <v>72.67713928222656</v>
       </c>
       <c r="F52">
-        <v>8649024</v>
+        <v>3444928</v>
       </c>
       <c r="G52">
-        <v>68.52981066686512</v>
+        <v>69.32876253967061</v>
       </c>
       <c r="H52">
-        <v>69.24580917358398</v>
+        <v>68.7977855682373</v>
       </c>
       <c r="I52">
-        <v>70.71137059529623</v>
+        <v>67.56001663208008</v>
       </c>
       <c r="L52">
-        <v>31.90812736056415</v>
+        <v>73.31609551273318</v>
       </c>
       <c r="M52">
-        <v>30.3951557921899</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>70.31757039252571</v>
+      </c>
+      <c r="O52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>65.87555694580078</v>
+        <v>72.67840576171875</v>
       </c>
       <c r="C53">
-        <v>66.05284881591797</v>
+        <v>73.93527984619141</v>
       </c>
       <c r="D53">
-        <v>65.20210266113281</v>
+        <v>72.62788391113281</v>
       </c>
       <c r="E53">
-        <v>65.20210266113281</v>
+        <v>72.97801208496094</v>
       </c>
       <c r="F53">
-        <v>11462784</v>
+        <v>21437312</v>
       </c>
       <c r="G53">
-        <v>68.22729175725308</v>
+        <v>69.66051249833336</v>
       </c>
       <c r="H53">
-        <v>68.74723243713379</v>
+        <v>69.05634994506836</v>
       </c>
       <c r="I53">
-        <v>70.42004750569662</v>
+        <v>67.79674987792968</v>
       </c>
       <c r="L53">
-        <v>28.4327834650596</v>
+        <v>74.56556231633927</v>
       </c>
       <c r="M53">
-        <v>28.21395784821091</v>
-      </c>
-      <c r="N53" t="s">
+        <v>71.21327486329163</v>
+      </c>
+      <c r="O53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>65.20355987548828</v>
+        <v>72.98207092285156</v>
       </c>
       <c r="C54">
-        <v>65.68271636962891</v>
+        <v>75.92755126953125</v>
       </c>
       <c r="D54">
-        <v>64.61968994140625</v>
+        <v>72.97798156738281</v>
       </c>
       <c r="E54">
-        <v>64.95868682861328</v>
+        <v>75.20204162597656</v>
       </c>
       <c r="F54">
-        <v>6217280</v>
+        <v>88926912</v>
       </c>
       <c r="G54">
-        <v>67.93014585464947</v>
+        <v>70.16428787357366</v>
       </c>
       <c r="H54">
-        <v>68.25555267333985</v>
+        <v>69.4701358795166</v>
       </c>
       <c r="I54">
-        <v>70.12038294474284</v>
+        <v>68.12085138956705</v>
       </c>
       <c r="L54">
-        <v>27.22817478480401</v>
+        <v>81.693817925761</v>
       </c>
       <c r="M54">
-        <v>27.44806915910822</v>
-      </c>
-      <c r="N54" t="s">
+        <v>76.78900097065456</v>
+      </c>
+      <c r="O54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>65.0009765625</v>
+        <v>75.18712615966797</v>
       </c>
       <c r="C55">
-        <v>66.05476379394531</v>
+        <v>76.84762573242188</v>
       </c>
       <c r="D55">
-        <v>64.85224151611328</v>
+        <v>74.42460632324219</v>
       </c>
       <c r="E55">
-        <v>65.78951263427734</v>
+        <v>74.49302673339844</v>
       </c>
       <c r="F55">
-        <v>22733312</v>
+        <v>19698176</v>
       </c>
       <c r="G55">
-        <v>67.73554283461563</v>
+        <v>70.55780958810318</v>
       </c>
       <c r="H55">
-        <v>67.80151405334473</v>
+        <v>69.84772071838378</v>
       </c>
       <c r="I55">
-        <v>69.84993794759114</v>
+        <v>68.43394622802734</v>
       </c>
       <c r="L55">
-        <v>37.41039526485356</v>
+        <v>74.23239081863491</v>
       </c>
       <c r="M55">
-        <v>34.0305602018928</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>72.00107278705039</v>
+      </c>
+      <c r="O55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>65.78423309326172</v>
+        <v>74.47480773925781</v>
       </c>
       <c r="C56">
-        <v>66.08255004882812</v>
+        <v>75.68334197998047</v>
       </c>
       <c r="D56">
-        <v>65.38455200195312</v>
+        <v>72.42610168457031</v>
       </c>
       <c r="E56">
-        <v>66.01805877685547</v>
+        <v>72.95742034912109</v>
       </c>
       <c r="F56">
-        <v>1632448</v>
+        <v>98580032</v>
       </c>
       <c r="G56">
-        <v>67.57940792027379</v>
+        <v>70.77595602092299</v>
       </c>
       <c r="H56">
-        <v>67.4255428314209</v>
+        <v>70.19797134399414</v>
       </c>
       <c r="I56">
-        <v>69.62404429117838</v>
+        <v>68.6875628153483</v>
       </c>
       <c r="L56">
-        <v>40.0080914024877</v>
+        <v>60.71976212945464</v>
       </c>
       <c r="M56">
-        <v>35.7572488528841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>62.85935581952861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>66.02498626708984</v>
+        <v>72.97911834716797</v>
       </c>
       <c r="C57">
-        <v>66.10518646240234</v>
+        <v>74.3653564453125</v>
       </c>
       <c r="D57">
-        <v>65.43122100830078</v>
+        <v>71.03176116943359</v>
       </c>
       <c r="E57">
-        <v>65.48281097412109</v>
+        <v>72.87607574462891</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>82850240</v>
       </c>
       <c r="G57">
-        <v>67.38880819789628</v>
+        <v>70.96687599580534</v>
       </c>
       <c r="H57">
-        <v>67.04207458496094</v>
+        <v>70.58493843078614</v>
       </c>
       <c r="I57">
-        <v>69.3831080118815</v>
+        <v>68.97492192586263</v>
       </c>
       <c r="L57">
-        <v>36.06443726639051</v>
+        <v>60.06814575956755</v>
       </c>
       <c r="M57">
-        <v>33.54294072583946</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>62.40733548676104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>65.48619079589844</v>
+        <v>72.89346313476562</v>
       </c>
       <c r="C58">
-        <v>65.55125427246094</v>
+        <v>73.48469543457031</v>
       </c>
       <c r="D58">
-        <v>63.63589477539063</v>
+        <v>71.20800018310547</v>
       </c>
       <c r="E58">
-        <v>64.51058197021484</v>
+        <v>72.50591278076172</v>
       </c>
       <c r="F58">
-        <v>31608192</v>
+        <v>30092544</v>
       </c>
       <c r="G58">
-        <v>67.12715126810706</v>
+        <v>71.10678843080137</v>
       </c>
       <c r="H58">
-        <v>66.61843299865723</v>
+        <v>70.92007560729981</v>
       </c>
       <c r="I58">
-        <v>69.09319534301758</v>
+        <v>69.30842768351236</v>
       </c>
       <c r="L58">
-        <v>30.01800706602659</v>
+        <v>56.93993759071461</v>
       </c>
       <c r="M58">
-        <v>29.91871486435582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>60.2829589259964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>64.51324462890625</v>
+        <v>72.49417877197266</v>
       </c>
       <c r="C59">
-        <v>65.14229583740234</v>
+        <v>72.66995239257812</v>
       </c>
       <c r="D59">
-        <v>64.31570434570312</v>
+        <v>71.72087097167969</v>
       </c>
       <c r="E59">
-        <v>65.12570190429688</v>
+        <v>72.51761627197266</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>66.94520132594249</v>
+        <v>71.23504550727148</v>
       </c>
       <c r="H59">
-        <v>66.21638946533203</v>
+        <v>71.19856986999511</v>
       </c>
       <c r="I59">
-        <v>68.82158075968424</v>
+        <v>69.56826375325521</v>
       </c>
       <c r="L59">
-        <v>37.47889136223878</v>
+        <v>57.01955303798096</v>
       </c>
       <c r="M59">
-        <v>34.72425150022703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>60.32893975751443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>65.12841033935547</v>
+        <v>72.51685333251953</v>
       </c>
       <c r="C60">
-        <v>65.63593292236328</v>
+        <v>72.55575561523438</v>
       </c>
       <c r="D60">
-        <v>65.07815551757812</v>
+        <v>71.10447692871094</v>
       </c>
       <c r="E60">
-        <v>65.58992767333984</v>
+        <v>71.31932067871094</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>66.82199463025134</v>
+        <v>71.24270688649325</v>
       </c>
       <c r="H60">
-        <v>65.8413013458252</v>
+        <v>71.38652687072754</v>
       </c>
       <c r="I60">
-        <v>68.55012486775716</v>
+        <v>69.79182256062826</v>
       </c>
       <c r="L60">
-        <v>42.66833192559826</v>
+        <v>47.00811294010641</v>
       </c>
       <c r="M60">
-        <v>38.17007239129224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>53.49953079478291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>65.58177947998047</v>
+        <v>71.32989501953125</v>
       </c>
       <c r="C61">
-        <v>65.839111328125</v>
+        <v>72.37678527832031</v>
       </c>
       <c r="D61">
-        <v>65.46360015869141</v>
+        <v>71.32989501953125</v>
       </c>
       <c r="E61">
-        <v>65.69313049316406</v>
+        <v>72.18962860107422</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>66.71937061778885</v>
+        <v>71.32879067872788</v>
       </c>
       <c r="H61">
-        <v>65.53156967163086</v>
+        <v>71.6595287322998</v>
       </c>
       <c r="I61">
-        <v>68.26728744506836</v>
+        <v>70.00560353597005</v>
       </c>
       <c r="L61">
-        <v>43.83428219519478</v>
+        <v>53.65659071704036</v>
       </c>
       <c r="M61">
-        <v>38.94174350062187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>57.28189275423878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>65.69404602050781</v>
+        <v>72.18712615966797</v>
       </c>
       <c r="C62">
-        <v>65.71688079833984</v>
+        <v>72.18712615966797</v>
       </c>
       <c r="D62">
-        <v>65.42031860351562</v>
+        <v>71.22051239013672</v>
       </c>
       <c r="E62">
-        <v>65.67378997802734</v>
+        <v>72.007568359375</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>66.62431783235598</v>
+        <v>71.39049774060489</v>
       </c>
       <c r="H62">
-        <v>65.52328910827637</v>
+        <v>71.90470275878906</v>
       </c>
       <c r="I62">
-        <v>67.96534957885743</v>
+        <v>70.16674448649088</v>
       </c>
       <c r="L62">
-        <v>43.64714063606418</v>
+        <v>52.11775163118044</v>
       </c>
       <c r="M62">
-        <v>38.84390325737119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>56.25111800312437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>65.67817687988281</v>
+        <v>71.997314453125</v>
       </c>
       <c r="C63">
-        <v>65.86818695068359</v>
+        <v>72.23892211914062</v>
       </c>
       <c r="D63">
-        <v>65.51020812988281</v>
+        <v>71.90613555908203</v>
       </c>
       <c r="E63">
-        <v>65.70475006103516</v>
+        <v>71.98796081542969</v>
       </c>
       <c r="F63">
-        <v>404160</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>66.54072076223591</v>
+        <v>71.44481256558895</v>
       </c>
       <c r="H63">
-        <v>65.5536994934082</v>
+        <v>72.15010757446289</v>
       </c>
       <c r="I63">
-        <v>67.6497200012207</v>
+        <v>70.30611902872721</v>
       </c>
       <c r="L63">
-        <v>44.07710512703301</v>
+        <v>51.93727958736736</v>
       </c>
       <c r="M63">
-        <v>39.10764789853013</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>56.13396191199168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>65.70425415039062</v>
+        <v>71.98599243164062</v>
       </c>
       <c r="C64">
-        <v>66.2977294921875</v>
+        <v>72.20936584472656</v>
       </c>
       <c r="D64">
-        <v>65.70425415039062</v>
+        <v>71.17207336425781</v>
       </c>
       <c r="E64">
-        <v>65.87601470947266</v>
+        <v>71.39933013916016</v>
       </c>
       <c r="F64">
-        <v>17184</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>66.48029293925742</v>
+        <v>71.44067779954997</v>
       </c>
       <c r="H64">
-        <v>65.58241577148438</v>
+        <v>72.31700286865234</v>
       </c>
       <c r="I64">
-        <v>67.35251108805339</v>
+        <v>70.45521926879883</v>
       </c>
       <c r="L64">
-        <v>46.61210289594091</v>
+        <v>46.49924031951059</v>
       </c>
       <c r="M64">
-        <v>40.63289446116053</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>52.59265789641938</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>65.87712097167969</v>
+        <v>71.39817047119141</v>
       </c>
       <c r="C65">
-        <v>66.02303314208984</v>
+        <v>72.01395416259766</v>
       </c>
       <c r="D65">
-        <v>65.41442108154297</v>
+        <v>71.16416931152344</v>
       </c>
       <c r="E65">
-        <v>65.47899627685547</v>
+        <v>71.93738555908203</v>
       </c>
       <c r="F65">
-        <v>2346928</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>66.38926596994816</v>
+        <v>71.48583305041652</v>
       </c>
       <c r="H65">
-        <v>65.59493751525879</v>
+        <v>72.42046318054199</v>
       </c>
       <c r="I65">
-        <v>67.03946812947591</v>
+        <v>70.6217544555664</v>
       </c>
       <c r="L65">
-        <v>41.68427375325621</v>
+        <v>51.69978515855774</v>
       </c>
       <c r="M65">
-        <v>38.24155891563435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>55.36460958267026</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>65.48004913330078</v>
+        <v>71.94221496582031</v>
       </c>
       <c r="C66">
-        <v>65.74533081054688</v>
+        <v>72.23558807373047</v>
       </c>
       <c r="D66">
-        <v>64.99187469482422</v>
+        <v>71.66349792480469</v>
       </c>
       <c r="E66">
-        <v>65.10018157958984</v>
+        <v>71.67098999023438</v>
       </c>
       <c r="F66">
-        <v>55952</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>66.27207647991558</v>
+        <v>71.50266549949087</v>
       </c>
       <c r="H66">
-        <v>65.59146080017089</v>
+        <v>72.44128189086913</v>
       </c>
       <c r="I66">
-        <v>66.75822474161784</v>
+        <v>70.81237386067708</v>
       </c>
       <c r="L66">
-        <v>37.43597749475416</v>
+        <v>49.04438081714969</v>
       </c>
       <c r="M66">
-        <v>36.06084122723746</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>53.69073068947732</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>65.09812164306641</v>
+        <v>71.672119140625</v>
       </c>
       <c r="C67">
-        <v>65.37096405029297</v>
+        <v>71.82585906982422</v>
       </c>
       <c r="D67">
-        <v>64.62725830078125</v>
+        <v>71.27674865722656</v>
       </c>
       <c r="E67">
-        <v>65.34892272949219</v>
+        <v>71.71919250488281</v>
       </c>
       <c r="F67">
-        <v>5179264</v>
+        <v>862208</v>
       </c>
       <c r="G67">
-        <v>66.18815341169528</v>
+        <v>71.52234977270832</v>
       </c>
       <c r="H67">
-        <v>65.59653205871582</v>
+        <v>72.47085762023926</v>
       </c>
       <c r="I67">
-        <v>66.49811630249023</v>
+        <v>71.0317891438802</v>
       </c>
       <c r="L67">
-        <v>41.81640452754929</v>
+        <v>49.57162538519928</v>
       </c>
       <c r="M67">
-        <v>38.53921860573178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>53.96195961469579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>65.34947967529297</v>
+        <v>71.71540832519531</v>
       </c>
       <c r="C68">
-        <v>65.38942718505859</v>
+        <v>71.71540832519531</v>
       </c>
       <c r="D68">
-        <v>63.96206283569336</v>
+        <v>70.35089111328125</v>
       </c>
       <c r="E68">
-        <v>64.25530242919922</v>
+        <v>70.35089111328125</v>
       </c>
       <c r="F68">
-        <v>21116368</v>
+        <v>15739968</v>
       </c>
       <c r="G68">
-        <v>66.01243968601382</v>
+        <v>71.41585353094223</v>
       </c>
       <c r="H68">
-        <v>65.48664779663086</v>
+        <v>72.340869140625</v>
       </c>
       <c r="I68">
-        <v>66.20717926025391</v>
+        <v>71.18337987263997</v>
       </c>
       <c r="L68">
-        <v>31.06004489871388</v>
+        <v>37.25974249637314</v>
       </c>
       <c r="M68">
-        <v>32.56297603540663</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>45.76747275925865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>64.25442504882812</v>
+        <v>70.36562347412109</v>
       </c>
       <c r="C69">
-        <v>64.44021606445312</v>
+        <v>70.85939025878906</v>
       </c>
       <c r="D69">
-        <v>61.70838928222656</v>
+        <v>69.69496917724609</v>
       </c>
       <c r="E69">
-        <v>62.50074005126953</v>
+        <v>69.81037902832031</v>
       </c>
       <c r="F69">
-        <v>73611824</v>
+        <v>33010624</v>
       </c>
       <c r="G69">
-        <v>65.69319426467344</v>
+        <v>71.26990130343115</v>
       </c>
       <c r="H69">
-        <v>65.29746513366699</v>
+        <v>72.23727645874024</v>
       </c>
       <c r="I69">
-        <v>65.85165150960286</v>
+        <v>71.27880147298177</v>
       </c>
       <c r="L69">
-        <v>21.21192262869134</v>
+        <v>33.55602396169957</v>
       </c>
       <c r="M69">
-        <v>25.68211194953695</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>42.99024021729954</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>62.50107192993164</v>
+        <v>69.79605102539062</v>
       </c>
       <c r="C70">
-        <v>64.748291015625</v>
+        <v>71.38998413085938</v>
       </c>
       <c r="D70">
-        <v>62.42370223999024</v>
+        <v>69.79374694824219</v>
       </c>
       <c r="E70">
-        <v>64.7225341796875</v>
+        <v>71.19881439208984</v>
       </c>
       <c r="F70">
-        <v>38409472</v>
+        <v>7471488</v>
       </c>
       <c r="G70">
-        <v>65.60495243876562</v>
+        <v>71.26343885694558</v>
       </c>
       <c r="H70">
-        <v>65.2090892791748</v>
+        <v>72.18952445983886</v>
       </c>
       <c r="I70">
-        <v>65.5726796468099</v>
+        <v>71.40008926391602</v>
       </c>
       <c r="L70">
-        <v>45.72658927871941</v>
+        <v>48.38329387330126</v>
       </c>
       <c r="M70">
-        <v>42.30708820902598</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>51.18463359493148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>64.71427154541016</v>
+        <v>71.20203399658203</v>
       </c>
       <c r="C71">
-        <v>64.92206573486328</v>
+        <v>71.52884674072266</v>
       </c>
       <c r="D71">
-        <v>64.07765960693359</v>
+        <v>70.73192596435547</v>
       </c>
       <c r="E71">
-        <v>64.61255645751953</v>
+        <v>70.9154052734375</v>
       </c>
       <c r="F71">
-        <v>26408224</v>
+        <v>2716608</v>
       </c>
       <c r="G71">
-        <v>65.5147346222887</v>
+        <v>71.23179944026303</v>
       </c>
       <c r="H71">
-        <v>65.17602882385253</v>
+        <v>72.13570556640624</v>
       </c>
       <c r="I71">
-        <v>65.33017272949219</v>
+        <v>71.53961639404297</v>
       </c>
       <c r="L71">
-        <v>44.94778696805295</v>
+        <v>46.02478236736975</v>
       </c>
       <c r="M71">
-        <v>41.80852740236639</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>49.61690771404798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>64.61502075195312</v>
+        <v>70.911865234375</v>
       </c>
       <c r="C72">
-        <v>65.90403747558594</v>
+        <v>71.19004058837891</v>
       </c>
       <c r="D72">
-        <v>64.61502075195312</v>
+        <v>70.54563140869141</v>
       </c>
       <c r="E72">
-        <v>65.77619934082031</v>
+        <v>70.54563140869141</v>
       </c>
       <c r="F72">
-        <v>47075488</v>
+        <v>864544</v>
       </c>
       <c r="G72">
-        <v>65.5385041421552</v>
+        <v>71.16942052830198</v>
       </c>
       <c r="H72">
-        <v>65.17102508544922</v>
+        <v>72.0291301727295</v>
       </c>
       <c r="I72">
-        <v>65.32806599934896</v>
+        <v>71.65433451334636</v>
       </c>
       <c r="L72">
-        <v>54.22742946187837</v>
+        <v>42.95154388653345</v>
       </c>
       <c r="M72">
-        <v>48.6973426867857</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>47.56967239233408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>65.77438354492188</v>
+        <v>70.53542327880859</v>
       </c>
       <c r="C73">
-        <v>67.18073272705078</v>
+        <v>70.85507202148438</v>
       </c>
       <c r="D73">
-        <v>65.40338134765625</v>
+        <v>69.33714294433594</v>
       </c>
       <c r="E73">
-        <v>67.17333984375</v>
+        <v>69.50070953369141</v>
       </c>
       <c r="F73">
-        <v>46447456</v>
+        <v>20220160</v>
       </c>
       <c r="G73">
-        <v>65.68712556957291</v>
+        <v>71.01771952879193</v>
       </c>
       <c r="H73">
-        <v>65.26958694458008</v>
+        <v>71.85526504516602</v>
       </c>
       <c r="I73">
-        <v>65.39729258219401</v>
+        <v>71.73502934773764</v>
       </c>
       <c r="L73">
-        <v>62.71627524822645</v>
+        <v>35.43044559654604</v>
       </c>
       <c r="M73">
-        <v>55.50777071074879</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>42.26290871812193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>67.18376922607422</v>
+        <v>69.51271820068359</v>
       </c>
       <c r="C74">
-        <v>68.30154418945312</v>
+        <v>70.67671966552734</v>
       </c>
       <c r="D74">
-        <v>66.84477996826172</v>
+        <v>69.51039886474609</v>
       </c>
       <c r="E74">
-        <v>67.80672454833984</v>
+        <v>70.10063934326172</v>
       </c>
       <c r="F74">
-        <v>22958112</v>
+        <v>5948960</v>
       </c>
       <c r="G74">
-        <v>65.87981638582445</v>
+        <v>70.93434860283463</v>
       </c>
       <c r="H74">
-        <v>65.4119888305664</v>
+        <v>71.60019493103027</v>
       </c>
       <c r="I74">
-        <v>65.48079376220703</v>
+        <v>71.80300318400064</v>
       </c>
       <c r="L74">
-        <v>65.9380343153387</v>
+        <v>41.99135919057812</v>
       </c>
       <c r="M74">
-        <v>58.21583193234812</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>45.98843516970135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>67.81297302246094</v>
+        <v>70.10063934326172</v>
       </c>
       <c r="C75">
-        <v>67.83530426025391</v>
+        <v>70.30255889892578</v>
       </c>
       <c r="D75">
-        <v>66.82408905029297</v>
+        <v>69.05143737792969</v>
       </c>
       <c r="E75">
-        <v>66.92632293701172</v>
+        <v>69.25541687011719</v>
       </c>
       <c r="F75">
-        <v>1598400</v>
+        <v>4268256</v>
       </c>
       <c r="G75">
-        <v>65.97495334502329</v>
+        <v>70.78171844531487</v>
       </c>
       <c r="H75">
-        <v>65.46882934570313</v>
+        <v>71.33831443786622</v>
       </c>
       <c r="I75">
-        <v>65.53738581339518</v>
+        <v>71.78257776896159</v>
       </c>
       <c r="L75">
-        <v>58.08872584984435</v>
+        <v>36.16672299075042</v>
       </c>
       <c r="M75">
-        <v>53.35462278945288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>41.88758975005292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>66.93055725097656</v>
+        <v>69.22520446777344</v>
       </c>
       <c r="C76">
-        <v>67.40463256835938</v>
+        <v>69.83509826660156</v>
       </c>
       <c r="D76">
-        <v>66.77477264404297</v>
+        <v>69.16525268554688</v>
       </c>
       <c r="E76">
-        <v>66.94132995605469</v>
+        <v>69.83509826660156</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>4640288</v>
       </c>
       <c r="G76">
-        <v>66.06280576420797</v>
+        <v>70.69566206543183</v>
       </c>
       <c r="H76">
-        <v>65.51499290466309</v>
+        <v>71.18219833374023</v>
       </c>
       <c r="I76">
-        <v>65.59643961588542</v>
+        <v>71.73526051839193</v>
       </c>
       <c r="L76">
-        <v>58.18418160738854</v>
+        <v>42.33792790230186</v>
       </c>
       <c r="M76">
-        <v>53.42601402434779</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>45.47843035653498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>66.94336700439453</v>
+        <v>69.87080383300781</v>
       </c>
       <c r="C77">
-        <v>67.09529876708984</v>
+        <v>70.0985107421875</v>
       </c>
       <c r="D77">
-        <v>65.93405914306641</v>
+        <v>69.39609527587891</v>
       </c>
       <c r="E77">
-        <v>65.95240783691406</v>
+        <v>69.70356750488281</v>
       </c>
       <c r="F77">
-        <v>4429152</v>
+        <v>8902528</v>
       </c>
       <c r="G77">
-        <v>66.05276958899942</v>
+        <v>70.60547165083646</v>
       </c>
       <c r="H77">
-        <v>65.53847274780273</v>
+        <v>71.02357292175293</v>
       </c>
       <c r="I77">
-        <v>65.61993662516277</v>
+        <v>71.68779017130534</v>
       </c>
       <c r="L77">
-        <v>49.7791571236077</v>
+        <v>41.31826779705761</v>
       </c>
       <c r="M77">
-        <v>48.19168806159434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>44.80196285621144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>65.97625732421875</v>
+        <v>69.70536804199219</v>
       </c>
       <c r="C78">
-        <v>66.08554840087891</v>
+        <v>70.06723785400391</v>
       </c>
       <c r="D78">
-        <v>64.93534851074219</v>
+        <v>69.52074432373047</v>
       </c>
       <c r="E78">
-        <v>65.13673400878906</v>
+        <v>69.57974243164062</v>
       </c>
       <c r="F78">
-        <v>20606560</v>
+        <v>2935936</v>
       </c>
       <c r="G78">
-        <v>65.96949362716212</v>
+        <v>70.51222354000046</v>
       </c>
       <c r="H78">
-        <v>65.56978034973145</v>
+        <v>70.87726440429688</v>
       </c>
       <c r="I78">
-        <v>65.57606150309245</v>
+        <v>71.57542622884115</v>
       </c>
       <c r="L78">
-        <v>43.89533685214288</v>
+        <v>40.2905755488291</v>
       </c>
       <c r="M78">
-        <v>44.33353484035068</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>44.13637698908442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>65.12599182128906</v>
+        <v>69.58750152587891</v>
       </c>
       <c r="C79">
-        <v>66.35513305664062</v>
+        <v>70.16880798339844</v>
       </c>
       <c r="D79">
-        <v>64.90986633300781</v>
+        <v>68.60191345214844</v>
       </c>
       <c r="E79">
-        <v>65.80316925048828</v>
+        <v>70.16880798339844</v>
       </c>
       <c r="F79">
-        <v>7294976</v>
+        <v>6530432</v>
       </c>
       <c r="G79">
-        <v>65.95437322928268</v>
+        <v>70.48100394394574</v>
       </c>
       <c r="H79">
-        <v>65.60365371704101</v>
+        <v>70.75982398986817</v>
       </c>
       <c r="I79">
-        <v>65.56002070109049</v>
+        <v>71.5183120727539</v>
       </c>
       <c r="L79">
-        <v>49.39343706416484</v>
+        <v>47.3050840485165</v>
       </c>
       <c r="M79">
-        <v>47.99676182755275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>48.0874844381748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>65.79874420166016</v>
+        <v>70.16387176513672</v>
       </c>
       <c r="C80">
-        <v>66.96669006347656</v>
+        <v>70.24994659423828</v>
       </c>
       <c r="D80">
-        <v>65.00833892822266</v>
+        <v>68.9720458984375</v>
       </c>
       <c r="E80">
-        <v>66.94773101806641</v>
+        <v>69.41709899902344</v>
       </c>
       <c r="F80">
-        <v>64162816</v>
+        <v>5288288</v>
       </c>
       <c r="G80">
-        <v>66.04467848280846</v>
+        <v>70.38428531258916</v>
       </c>
       <c r="H80">
-        <v>65.67154388427734</v>
+        <v>70.66471290588379</v>
       </c>
       <c r="I80">
-        <v>65.57527669270833</v>
+        <v>71.42708689371744</v>
       </c>
       <c r="L80">
-        <v>57.44995718277842</v>
+        <v>40.47831213512629</v>
       </c>
       <c r="M80">
-        <v>53.63943468424934</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>43.82750691937566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>66.95326995849609</v>
+        <v>69.40769195556641</v>
       </c>
       <c r="C81">
-        <v>67.57589721679688</v>
+        <v>70.40702819824219</v>
       </c>
       <c r="D81">
-        <v>66.80397796630859</v>
+        <v>69.40326690673828</v>
       </c>
       <c r="E81">
-        <v>67.5601806640625</v>
+        <v>69.47220611572266</v>
       </c>
       <c r="F81">
-        <v>994816</v>
+        <v>24115424</v>
       </c>
       <c r="G81">
-        <v>66.18245140837701</v>
+        <v>70.30136902196493</v>
       </c>
       <c r="H81">
-        <v>65.76489639282227</v>
+        <v>70.52884178161621</v>
       </c>
       <c r="I81">
-        <v>65.65149052937825</v>
+        <v>71.34310099283854</v>
       </c>
       <c r="L81">
-        <v>61.17112406833478</v>
+        <v>41.17840370933544</v>
       </c>
       <c r="M81">
-        <v>56.36765167203531</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>44.2176417721091</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>67.55976104736328</v>
+        <v>69.46499633789062</v>
       </c>
       <c r="C82">
-        <v>67.76787567138672</v>
+        <v>69.77773284912109</v>
       </c>
       <c r="D82">
-        <v>66.61318969726562</v>
+        <v>69.30789184570312</v>
       </c>
       <c r="E82">
-        <v>66.72959136962891</v>
+        <v>69.4447021484375</v>
       </c>
       <c r="F82">
-        <v>2883360</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>66.23219140485445</v>
+        <v>70.22349021528062</v>
       </c>
       <c r="H82">
-        <v>65.81768646240235</v>
+        <v>70.40069847106933</v>
       </c>
       <c r="I82">
-        <v>65.67993443806967</v>
+        <v>71.2353530883789</v>
       </c>
       <c r="L82">
-        <v>53.97000388638814</v>
+        <v>40.90823779122081</v>
       </c>
       <c r="M82">
-        <v>51.90644733702701</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>44.05318917289741</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>66.73117065429688</v>
+        <v>69.44313049316406</v>
       </c>
       <c r="C83">
-        <v>67.71854400634766</v>
+        <v>69.87574005126953</v>
       </c>
       <c r="D83">
-        <v>66.51508331298828</v>
+        <v>69.24318695068359</v>
       </c>
       <c r="E83">
-        <v>67.10408782958984</v>
+        <v>69.24318695068359</v>
       </c>
       <c r="F83">
-        <v>20285792</v>
+        <v>9715872</v>
       </c>
       <c r="G83">
-        <v>66.31145471619402</v>
+        <v>70.13437173668089</v>
       </c>
       <c r="H83">
-        <v>65.88765335083008</v>
+        <v>70.26345977783203</v>
       </c>
       <c r="I83">
-        <v>65.7433339436849</v>
+        <v>71.11085891723633</v>
       </c>
       <c r="L83">
-        <v>56.56370699256245</v>
+        <v>38.80947293406683</v>
       </c>
       <c r="M83">
-        <v>53.68627501781185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>42.79727930775779</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>67.13468933105469</v>
+        <v>69.24262237548828</v>
       </c>
       <c r="C84">
-        <v>67.20857238769531</v>
+        <v>69.51541137695312</v>
       </c>
       <c r="D84">
-        <v>65.40641021728516</v>
+        <v>69.06266784667969</v>
       </c>
       <c r="E84">
-        <v>67.07986450195312</v>
+        <v>69.16570281982422</v>
       </c>
       <c r="F84">
-        <v>1522304</v>
+        <v>4055168</v>
       </c>
       <c r="G84">
-        <v>66.38131015126304</v>
+        <v>70.04631092605756</v>
       </c>
       <c r="H84">
-        <v>65.94784584045411</v>
+        <v>70.15177841186524</v>
       </c>
       <c r="I84">
-        <v>65.81403986612956</v>
+        <v>70.90964762369792</v>
       </c>
       <c r="L84">
-        <v>56.33272469835362</v>
+        <v>37.96688457068096</v>
       </c>
       <c r="M84">
-        <v>53.54823435918868</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>42.29794656363279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>67.06869506835938</v>
+        <v>69.15418243408203</v>
       </c>
       <c r="C85">
-        <v>68.10357666015625</v>
+        <v>69.40242004394531</v>
       </c>
       <c r="D85">
-        <v>66.87351226806641</v>
+        <v>68.7257080078125</v>
       </c>
       <c r="E85">
-        <v>68.06142425537109</v>
+        <v>68.7257080078125</v>
       </c>
       <c r="F85">
-        <v>3790112</v>
+        <v>3756896</v>
       </c>
       <c r="G85">
-        <v>66.53404779709105</v>
+        <v>69.92625611530801</v>
       </c>
       <c r="H85">
-        <v>66.07696723937988</v>
+        <v>69.99119453430175</v>
       </c>
       <c r="I85">
-        <v>65.88977025349935</v>
+        <v>70.71740366617838</v>
       </c>
       <c r="L85">
-        <v>63.18588184473431</v>
+        <v>33.34241358645627</v>
       </c>
       <c r="M85">
-        <v>58.23452091600156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>39.48098247976439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>68.05733489990234</v>
+        <v>68.71160888671875</v>
       </c>
       <c r="C86">
-        <v>71.03638458251953</v>
+        <v>69.53562164306641</v>
       </c>
       <c r="D86">
-        <v>67.23722839355469</v>
+        <v>68.59004974365234</v>
       </c>
       <c r="E86">
-        <v>69.86817932128906</v>
+        <v>69.39697265625</v>
       </c>
       <c r="F86">
-        <v>83842592</v>
+        <v>1904672</v>
       </c>
       <c r="G86">
-        <v>66.83715066292723</v>
+        <v>69.87813943721183</v>
       </c>
       <c r="H86">
-        <v>66.31536712646485</v>
+        <v>69.87749366760254</v>
       </c>
       <c r="I86">
-        <v>66.01810760498047</v>
+        <v>70.59872207641601</v>
       </c>
       <c r="L86">
-        <v>72.21554484076449</v>
+        <v>44.86792440371119</v>
       </c>
       <c r="M86">
-        <v>65.19495114335177</v>
-      </c>
-      <c r="O86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>45.44981207473047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>69.91801452636719</v>
+        <v>69.39806365966797</v>
       </c>
       <c r="C87">
-        <v>71.43589782714844</v>
+        <v>69.59100341796875</v>
       </c>
       <c r="D87">
-        <v>69.73507690429688</v>
+        <v>69.18761444091797</v>
       </c>
       <c r="E87">
-        <v>71.25461578369141</v>
+        <v>69.37976837158203</v>
       </c>
       <c r="F87">
-        <v>43879328</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>67.23873840117852</v>
+        <v>69.83283297670003</v>
       </c>
       <c r="H87">
-        <v>66.6106517791748</v>
+        <v>69.76052246093749</v>
       </c>
       <c r="I87">
-        <v>66.21050109863282</v>
+        <v>70.48217849731445</v>
       </c>
       <c r="L87">
-        <v>77.07068188023611</v>
+        <v>44.64534644147287</v>
       </c>
       <c r="M87">
-        <v>69.40813102068142</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>45.32642311943278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>71.271728515625</v>
+        <v>69.38743591308594</v>
       </c>
       <c r="C88">
-        <v>71.53230285644531</v>
+        <v>69.74671936035156</v>
       </c>
       <c r="D88">
-        <v>70.02751922607422</v>
+        <v>68.89469909667969</v>
       </c>
       <c r="E88">
-        <v>71.12767791748047</v>
+        <v>69.21807098388672</v>
       </c>
       <c r="F88">
-        <v>34708928</v>
+        <v>5827072</v>
       </c>
       <c r="G88">
-        <v>67.59227835720597</v>
+        <v>69.77694552280791</v>
       </c>
       <c r="H88">
-        <v>66.95427055358887</v>
+        <v>69.70388145446778</v>
       </c>
       <c r="I88">
-        <v>66.43107096354167</v>
+        <v>70.37258377075196</v>
       </c>
       <c r="L88">
-        <v>75.70802883458978</v>
+        <v>42.42030124493826</v>
       </c>
       <c r="M88">
-        <v>68.58947560052475</v>
-      </c>
-      <c r="O88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>44.11422415650255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>71.12501525878906</v>
+        <v>69.21807098388672</v>
       </c>
       <c r="C89">
-        <v>73.01081085205078</v>
+        <v>69.92161560058594</v>
       </c>
       <c r="D89">
-        <v>70.85032653808594</v>
+        <v>69.14122772216797</v>
       </c>
       <c r="E89">
-        <v>72.95066070556641</v>
+        <v>69.89329528808594</v>
       </c>
       <c r="F89">
-        <v>44695040</v>
+        <v>3285216</v>
       </c>
       <c r="G89">
-        <v>68.07940402523873</v>
+        <v>69.78752277419682</v>
       </c>
       <c r="H89">
-        <v>67.47676658630371</v>
+        <v>69.70802726745606</v>
       </c>
       <c r="I89">
-        <v>66.69190292358398</v>
+        <v>70.2851064046224</v>
       </c>
       <c r="L89">
-        <v>81.10535557800327</v>
+        <v>53.34395947732067</v>
       </c>
       <c r="M89">
-        <v>73.43533862100526</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>50.11394897715671</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>72.97714233398438</v>
+        <v>69.90066528320312</v>
       </c>
       <c r="C90">
-        <v>74.51087951660156</v>
+        <v>70.23684692382812</v>
       </c>
       <c r="D90">
-        <v>71.73812866210938</v>
+        <v>68.83811950683594</v>
       </c>
       <c r="E90">
-        <v>71.88223266601562</v>
+        <v>68.86498260498047</v>
       </c>
       <c r="F90">
-        <v>131601152</v>
+        <v>1474784</v>
       </c>
       <c r="G90">
-        <v>68.42511571985482</v>
+        <v>69.70365548608623</v>
       </c>
       <c r="H90">
-        <v>67.83475151062012</v>
+        <v>69.59133567810059</v>
       </c>
       <c r="I90">
-        <v>66.90164642333984</v>
+        <v>70.20329513549805</v>
       </c>
       <c r="L90">
-        <v>70.7418310173997</v>
+        <v>40.25856874390855</v>
       </c>
       <c r="M90">
-        <v>66.91914852877044</v>
-      </c>
-      <c r="O90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>42.61127042685438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>71.92097473144531</v>
+        <v>68.86991119384766</v>
       </c>
       <c r="C91">
-        <v>72.43112945556641</v>
+        <v>69.24720764160156</v>
       </c>
       <c r="D91">
-        <v>70.90496826171875</v>
+        <v>68.21662902832031</v>
       </c>
       <c r="E91">
-        <v>72.15385437011719</v>
+        <v>69.21710968017578</v>
       </c>
       <c r="F91">
-        <v>33698944</v>
+        <v>6601440</v>
       </c>
       <c r="G91">
-        <v>68.76409196078777</v>
+        <v>69.65942404918528</v>
       </c>
       <c r="H91">
-        <v>68.21181640624999</v>
+        <v>69.5064208984375</v>
       </c>
       <c r="I91">
-        <v>67.11700388590495</v>
+        <v>70.10421117146809</v>
       </c>
       <c r="L91">
-        <v>71.77337698644429</v>
+        <v>45.41665221123743</v>
       </c>
       <c r="M91">
-        <v>67.70374206200084</v>
-      </c>
-      <c r="O91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>45.61391823317201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>72.14659881591797</v>
+        <v>69.21810913085938</v>
       </c>
       <c r="C92">
-        <v>72.41790008544922</v>
+        <v>69.85474395751953</v>
       </c>
       <c r="D92">
-        <v>71.13356018066406</v>
+        <v>67.13047027587891</v>
       </c>
       <c r="E92">
-        <v>71.99178314208984</v>
+        <v>67.13047027587891</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>72102752</v>
       </c>
       <c r="G92">
-        <v>69.05751843181523</v>
+        <v>69.42951916070288</v>
       </c>
       <c r="H92">
-        <v>68.52259559631348</v>
+        <v>69.33566284179688</v>
       </c>
       <c r="I92">
-        <v>67.32760365804036</v>
+        <v>69.94164123535157</v>
       </c>
       <c r="L92">
-        <v>70.11401829008933</v>
+        <v>28.82517141930627</v>
       </c>
       <c r="M92">
-        <v>66.68740445449157</v>
-      </c>
-      <c r="O92" t="s">
+        <v>34.1960230159346</v>
+      </c>
+      <c r="N92" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>71.97541809082031</v>
+        <v>67.16260528564453</v>
       </c>
       <c r="C93">
-        <v>72.67713928222656</v>
+        <v>68.18084716796875</v>
       </c>
       <c r="D93">
-        <v>70.68125915527344</v>
+        <v>66.6109619140625</v>
       </c>
       <c r="E93">
-        <v>72.67713928222656</v>
+        <v>67.98520660400391</v>
       </c>
       <c r="F93">
-        <v>3444928</v>
+        <v>61113408</v>
       </c>
       <c r="G93">
-        <v>69.38657487276171</v>
+        <v>69.29821801918479</v>
       </c>
       <c r="H93">
-        <v>68.7977855682373</v>
+        <v>69.2598876953125</v>
       </c>
       <c r="I93">
-        <v>67.56001663208008</v>
+        <v>69.8082160949707</v>
       </c>
       <c r="L93">
-        <v>73.075367275662</v>
+        <v>39.08078421360233</v>
       </c>
       <c r="M93">
-        <v>68.81902584922913</v>
-      </c>
-      <c r="O93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>40.73970146343336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>72.67840576171875</v>
+        <v>67.99488067626953</v>
       </c>
       <c r="C94">
-        <v>73.93527984619141</v>
+        <v>68.52352905273438</v>
       </c>
       <c r="D94">
-        <v>72.62788391113281</v>
+        <v>67.12335205078125</v>
       </c>
       <c r="E94">
-        <v>72.97801208496094</v>
+        <v>67.88556671142578</v>
       </c>
       <c r="F94">
-        <v>21437312</v>
+        <v>12775328</v>
       </c>
       <c r="G94">
-        <v>69.71306916477982</v>
+        <v>69.16979517302488</v>
       </c>
       <c r="H94">
-        <v>69.05634994506836</v>
+        <v>69.14913406372071</v>
       </c>
       <c r="I94">
-        <v>67.79674987792968</v>
+        <v>69.69109064737955</v>
       </c>
       <c r="L94">
-        <v>74.33151701594454</v>
+        <v>38.35597808355157</v>
       </c>
       <c r="M94">
-        <v>69.73461187026491</v>
-      </c>
-      <c r="O94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>40.23737595728907</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>72.98207092285156</v>
+        <v>67.88556671142578</v>
       </c>
       <c r="C95">
-        <v>75.92755126953125</v>
+        <v>68.69427490234375</v>
       </c>
       <c r="D95">
-        <v>72.97798156738281</v>
+        <v>67.87293243408203</v>
       </c>
       <c r="E95">
-        <v>75.20204162597656</v>
+        <v>68.65758514404297</v>
       </c>
       <c r="F95">
-        <v>88926912</v>
+        <v>5800928</v>
       </c>
       <c r="G95">
-        <v>70.21206666125225</v>
+        <v>69.12323062493562</v>
       </c>
       <c r="H95">
-        <v>69.4701358795166</v>
+        <v>69.11924247741699</v>
       </c>
       <c r="I95">
-        <v>68.12085138956705</v>
+        <v>69.58176396687826</v>
       </c>
       <c r="L95">
-        <v>81.50650004227046</v>
+        <v>46.9345905422628</v>
       </c>
       <c r="M95">
-        <v>75.46878537313181</v>
-      </c>
-      <c r="O95" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>45.81239606910812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>75.18712615966797</v>
+        <v>68.65982055664062</v>
       </c>
       <c r="C96">
-        <v>76.84762573242188</v>
+        <v>69.00709533691406</v>
       </c>
       <c r="D96">
-        <v>74.42460632324219</v>
+        <v>68.28050994873047</v>
       </c>
       <c r="E96">
-        <v>74.49302673339844</v>
+        <v>68.84491729736328</v>
       </c>
       <c r="F96">
-        <v>19698176</v>
+        <v>727552</v>
       </c>
       <c r="G96">
-        <v>70.60124484962917</v>
+        <v>69.09792941333814</v>
       </c>
       <c r="H96">
-        <v>69.84772071838378</v>
+        <v>69.06973342895508</v>
       </c>
       <c r="I96">
-        <v>68.43394622802734</v>
+        <v>69.48756154378255</v>
       </c>
       <c r="L96">
-        <v>74.07992555753074</v>
+        <v>48.87673634974958</v>
       </c>
       <c r="M96">
-        <v>70.85961402549765</v>
-      </c>
-      <c r="O96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>47.10191020922984</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>74.47480773925781</v>
+        <v>68.84273529052734</v>
       </c>
       <c r="C97">
-        <v>75.68334197998047</v>
+        <v>70.53369140625</v>
       </c>
       <c r="D97">
-        <v>72.42610168457031</v>
+        <v>68.72600555419922</v>
       </c>
       <c r="E97">
-        <v>72.95742034912109</v>
+        <v>70.28070831298828</v>
       </c>
       <c r="F97">
-        <v>98580032</v>
+        <v>46404672</v>
       </c>
       <c r="G97">
-        <v>70.81544262231026</v>
+        <v>69.20545476785179</v>
       </c>
       <c r="H97">
-        <v>70.19797134399414</v>
+        <v>69.09859046936035</v>
       </c>
       <c r="I97">
-        <v>68.6875628153483</v>
+        <v>69.43961207071941</v>
       </c>
       <c r="L97">
-        <v>60.62135311424778</v>
+        <v>61.13996719481286</v>
       </c>
       <c r="M97">
-        <v>62.02421791092573</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>55.78642205298635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>72.97911834716797</v>
+        <v>70.26123809814453</v>
       </c>
       <c r="C98">
-        <v>74.3653564453125</v>
+        <v>70.93137359619141</v>
       </c>
       <c r="D98">
-        <v>71.03176116943359</v>
+        <v>67.64324951171875</v>
       </c>
       <c r="E98">
-        <v>72.87607574462891</v>
+        <v>70.60870361328125</v>
       </c>
       <c r="F98">
-        <v>82850240</v>
+        <v>18920576</v>
       </c>
       <c r="G98">
-        <v>71.0027729061574</v>
+        <v>69.33302284470901</v>
       </c>
       <c r="H98">
-        <v>70.58493843078614</v>
+        <v>69.15003852844238</v>
       </c>
       <c r="I98">
-        <v>68.97492192586263</v>
+        <v>69.44820582071939</v>
       </c>
       <c r="L98">
-        <v>59.97204817614824</v>
+        <v>63.396481438065</v>
       </c>
       <c r="M98">
-        <v>61.58614761378792</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>57.50285274978803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>72.89346313476562</v>
+        <v>70.59907531738281</v>
       </c>
       <c r="C99">
-        <v>73.48469543457031</v>
+        <v>71.41926574707031</v>
       </c>
       <c r="D99">
-        <v>71.20800018310547</v>
+        <v>70.42073822021484</v>
       </c>
       <c r="E99">
-        <v>72.50591278076172</v>
+        <v>71.18065643310547</v>
       </c>
       <c r="F99">
-        <v>30092544</v>
+        <v>4582240</v>
       </c>
       <c r="G99">
-        <v>71.13942198566689</v>
+        <v>69.50098953456323</v>
       </c>
       <c r="H99">
-        <v>70.92007560729981</v>
+        <v>69.20063095092773</v>
       </c>
       <c r="I99">
-        <v>69.30842768351236</v>
+        <v>69.49388173421224</v>
       </c>
       <c r="L99">
-        <v>56.85455794379559</v>
+        <v>67.13974922354899</v>
       </c>
       <c r="M99">
-        <v>59.52581766426034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>60.39051921337777</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>72.49417877197266</v>
+        <v>71.18571472167969</v>
       </c>
       <c r="C100">
-        <v>72.66995239257812</v>
+        <v>72.01357269287109</v>
       </c>
       <c r="D100">
-        <v>71.72087097167969</v>
+        <v>70.64440155029297</v>
       </c>
       <c r="E100">
-        <v>72.51761627197266</v>
+        <v>71.54420471191406</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>26729888</v>
       </c>
       <c r="G100">
-        <v>71.26471237533104</v>
+        <v>69.68673636886786</v>
       </c>
       <c r="H100">
-        <v>71.19856986999511</v>
+        <v>69.30698623657227</v>
       </c>
       <c r="I100">
-        <v>69.56826375325521</v>
+        <v>69.50539474487304</v>
       </c>
       <c r="L100">
-        <v>56.93418558972156</v>
+        <v>69.37899571436694</v>
       </c>
       <c r="M100">
-        <v>59.57186924599069</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>62.15098815532209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>72.51685333251953</v>
+        <v>71.54438781738281</v>
       </c>
       <c r="C101">
-        <v>72.55575561523438</v>
+        <v>72.67486572265625</v>
       </c>
       <c r="D101">
-        <v>71.10447692871094</v>
+        <v>71.46526336669922</v>
       </c>
       <c r="E101">
-        <v>71.31932067871094</v>
+        <v>72.19550323486328</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>28264544</v>
       </c>
       <c r="G101">
-        <v>71.26967676654741</v>
+        <v>69.91480608395835</v>
       </c>
       <c r="H101">
-        <v>71.38652687072754</v>
+        <v>69.44315109252929</v>
       </c>
       <c r="I101">
-        <v>69.79182256062826</v>
+        <v>69.54806467692057</v>
       </c>
       <c r="L101">
-        <v>46.95278733684734</v>
+        <v>73.0766825237656</v>
       </c>
       <c r="M101">
-        <v>52.93120584058364</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>65.14020062465961</v>
+      </c>
+      <c r="O101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>71.32989501953125</v>
+        <v>72.17988586425781</v>
       </c>
       <c r="C102">
-        <v>72.37678527832031</v>
+        <v>72.216064453125</v>
       </c>
       <c r="D102">
-        <v>71.32989501953125</v>
+        <v>71.02234649658203</v>
       </c>
       <c r="E102">
-        <v>72.18962860107422</v>
+        <v>71.07855224609375</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>26113632</v>
       </c>
       <c r="G102">
-        <v>71.35330875150439</v>
+        <v>70.02060118960702</v>
       </c>
       <c r="H102">
-        <v>71.6595287322998</v>
+        <v>69.52484359741212</v>
       </c>
       <c r="I102">
-        <v>70.00560353597005</v>
+        <v>69.56582870483399</v>
       </c>
       <c r="L102">
-        <v>53.59944008380312</v>
+        <v>59.26837991691549</v>
       </c>
       <c r="M102">
-        <v>56.705986701779</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>56.84822768199043</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>72.18712615966797</v>
+        <v>71.08066558837891</v>
       </c>
       <c r="C103">
-        <v>72.18712615966797</v>
+        <v>71.35654449462891</v>
       </c>
       <c r="D103">
-        <v>71.22051239013672</v>
+        <v>70.66716003417969</v>
       </c>
       <c r="E103">
-        <v>72.007568359375</v>
+        <v>70.94760131835938</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>560256</v>
       </c>
       <c r="G103">
-        <v>71.41278689767444</v>
+        <v>70.10487392858451</v>
       </c>
       <c r="H103">
-        <v>71.90470275878906</v>
+        <v>69.6100643157959</v>
       </c>
       <c r="I103">
-        <v>70.16674448649088</v>
+        <v>69.61405843098959</v>
       </c>
       <c r="L103">
-        <v>52.06420679951798</v>
+        <v>57.82719216335427</v>
       </c>
       <c r="M103">
-        <v>55.69966209105822</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>55.9490191728537</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>71.997314453125</v>
+        <v>70.93727874755859</v>
       </c>
       <c r="C104">
-        <v>72.23892211914062</v>
+        <v>71.06031036376953</v>
       </c>
       <c r="D104">
-        <v>71.90613555908203</v>
+        <v>70.60953521728516</v>
       </c>
       <c r="E104">
-        <v>71.98796081542969</v>
+        <v>70.72975158691406</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>71.46507543565218</v>
+        <v>70.16168098843265</v>
       </c>
       <c r="H104">
-        <v>72.15010757446289</v>
+        <v>69.68826675415039</v>
       </c>
       <c r="I104">
-        <v>70.30611902872721</v>
+        <v>69.63502883911133</v>
       </c>
       <c r="L104">
-        <v>51.8841500376305</v>
+        <v>55.31007890745123</v>
       </c>
       <c r="M104">
-        <v>55.58525273733225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>54.40720157002387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>71.98599243164062</v>
+        <v>70.73094177246094</v>
       </c>
       <c r="C105">
-        <v>72.20936584472656</v>
+        <v>71.32648468017578</v>
       </c>
       <c r="D105">
-        <v>71.17207336425781</v>
+        <v>70.66415405273438</v>
       </c>
       <c r="E105">
-        <v>71.39933013916016</v>
+        <v>71.29709625244141</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>5211072</v>
       </c>
       <c r="G105">
-        <v>71.45909859051655</v>
+        <v>70.264900557888</v>
       </c>
       <c r="H105">
-        <v>72.31700286865234</v>
+        <v>69.81683616638183</v>
       </c>
       <c r="I105">
-        <v>70.45521926879883</v>
+        <v>69.70308481852213</v>
       </c>
       <c r="L105">
-        <v>46.45787573225854</v>
+        <v>60.36476880004333</v>
       </c>
       <c r="M105">
-        <v>52.12386716591573</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>57.67819264029458</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>71.39817047119141</v>
+        <v>71.29935455322266</v>
       </c>
       <c r="C106">
-        <v>72.01395416259766</v>
+        <v>71.57638549804688</v>
       </c>
       <c r="D106">
-        <v>71.16416931152344</v>
+        <v>71.22786712646484</v>
       </c>
       <c r="E106">
-        <v>71.93738555908203</v>
+        <v>71.32929229736328</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1384832</v>
       </c>
       <c r="G106">
-        <v>71.5025792240225</v>
+        <v>70.36166344329483</v>
       </c>
       <c r="H106">
-        <v>72.42046318054199</v>
+        <v>69.9134521484375</v>
       </c>
       <c r="I106">
-        <v>70.6217544555664</v>
+        <v>69.75289128621419</v>
       </c>
       <c r="L106">
-        <v>51.65707651577311</v>
+        <v>60.64892010517153</v>
       </c>
       <c r="M106">
-        <v>54.88915389607318</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>57.86294395229238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>71.94221496582031</v>
+        <v>71.32337951660156</v>
       </c>
       <c r="C107">
-        <v>72.23558807373047</v>
+        <v>71.42817687988281</v>
       </c>
       <c r="D107">
-        <v>71.66349792480469</v>
+        <v>70.98361968994141</v>
       </c>
       <c r="E107">
-        <v>71.67098999023438</v>
+        <v>71.38846588134766</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>71.51788929367812</v>
+        <v>70.45500911948145</v>
       </c>
       <c r="H107">
-        <v>72.44128189086913</v>
+        <v>70.01388702392578</v>
       </c>
       <c r="I107">
-        <v>70.81237386067708</v>
+        <v>69.80905456542969</v>
       </c>
       <c r="L107">
-        <v>49.00646038891607</v>
+        <v>61.22371425361374</v>
       </c>
       <c r="M107">
-        <v>53.24924680051161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>58.22390570990648</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>71.672119140625</v>
+        <v>71.38802337646484</v>
       </c>
       <c r="C108">
-        <v>71.82585906982422</v>
+        <v>71.39370727539062</v>
       </c>
       <c r="D108">
-        <v>71.27674865722656</v>
+        <v>71.06639099121094</v>
       </c>
       <c r="E108">
-        <v>71.71919250488281</v>
+        <v>71.06639099121094</v>
       </c>
       <c r="F108">
-        <v>862208</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>71.53618958560583</v>
+        <v>70.51058928963867</v>
       </c>
       <c r="H108">
-        <v>72.47085762023926</v>
+        <v>70.10630302429199</v>
       </c>
       <c r="I108">
-        <v>71.0317891438802</v>
+        <v>69.85860951741536</v>
       </c>
       <c r="L108">
-        <v>49.53358667465415</v>
+        <v>56.1973597994955</v>
       </c>
       <c r="M108">
-        <v>53.51984670715616</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>55.44012586005319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>71.71540832519531</v>
+        <v>71.06639099121094</v>
       </c>
       <c r="C109">
-        <v>71.71540832519531</v>
+        <v>71.33068084716797</v>
       </c>
       <c r="D109">
-        <v>70.35089111328125</v>
+        <v>70.72990417480469</v>
       </c>
       <c r="E109">
-        <v>70.35089111328125</v>
+        <v>70.82966613769531</v>
       </c>
       <c r="F109">
-        <v>15739968</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>71.42843517903087</v>
+        <v>70.53959627582563</v>
       </c>
       <c r="H109">
-        <v>72.340869140625</v>
+        <v>70.15312156677246</v>
       </c>
       <c r="I109">
-        <v>71.18337987263997</v>
+        <v>69.88063812255859</v>
       </c>
       <c r="L109">
-        <v>37.24010267767441</v>
+        <v>52.624924011579</v>
       </c>
       <c r="M109">
-        <v>45.47357198154554</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>53.41851736223616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>70.36562347412109</v>
+        <v>70.82870483398438</v>
       </c>
       <c r="C110">
-        <v>70.85939025878906</v>
+        <v>70.91283416748047</v>
       </c>
       <c r="D110">
-        <v>69.69496917724609</v>
+        <v>70.5462646484375</v>
       </c>
       <c r="E110">
-        <v>69.81037902832031</v>
+        <v>70.61920166015625</v>
       </c>
       <c r="F110">
-        <v>33010624</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>71.28133916532991</v>
+        <v>70.54683312894659</v>
       </c>
       <c r="H110">
-        <v>72.23727645874024</v>
+        <v>70.24083251953125</v>
       </c>
       <c r="I110">
-        <v>71.27880147298177</v>
+        <v>69.92070821126302</v>
       </c>
       <c r="L110">
-        <v>33.54076227935812</v>
+        <v>49.47894091036247</v>
       </c>
       <c r="M110">
-        <v>42.74004541901784</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>51.61641154806771</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>69.79605102539062</v>
+        <v>70.62123870849609</v>
       </c>
       <c r="C111">
-        <v>71.38998413085938</v>
+        <v>72.14863586425781</v>
       </c>
       <c r="D111">
-        <v>69.79374694824219</v>
+        <v>70.62123870849609</v>
       </c>
       <c r="E111">
-        <v>71.19881439208984</v>
+        <v>71.58702087402344</v>
       </c>
       <c r="F111">
-        <v>7471488</v>
+        <v>13518256</v>
       </c>
       <c r="G111">
-        <v>71.27383691321717</v>
+        <v>70.64139565122629</v>
       </c>
       <c r="H111">
-        <v>72.18952445983886</v>
+        <v>70.35932807922363</v>
       </c>
       <c r="I111">
-        <v>71.40008926391602</v>
+        <v>69.99120203653972</v>
       </c>
       <c r="L111">
-        <v>48.36388662572391</v>
+        <v>61.41269969656062</v>
       </c>
       <c r="M111">
-        <v>50.90423694858534</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>58.54254989543724</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>71.20203399658203</v>
+        <v>71.61471557617188</v>
       </c>
       <c r="C112">
-        <v>71.52884674072266</v>
+        <v>72.54460144042969</v>
       </c>
       <c r="D112">
-        <v>70.73192596435547</v>
+        <v>71.44506072998047</v>
       </c>
       <c r="E112">
-        <v>70.9154052734375</v>
+        <v>72.3018798828125</v>
       </c>
       <c r="F112">
-        <v>2716608</v>
+        <v>44735760</v>
       </c>
       <c r="G112">
-        <v>71.24125221869174</v>
+        <v>70.79234876318867</v>
       </c>
       <c r="H112">
-        <v>72.13570556640624</v>
+        <v>70.61789855957031</v>
       </c>
       <c r="I112">
-        <v>71.53961639404297</v>
+        <v>70.08644129435221</v>
       </c>
       <c r="L112">
-        <v>46.00746305931624</v>
+        <v>67.7440132039484</v>
       </c>
       <c r="M112">
-        <v>49.35725232692882</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>62.78066313002117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>70.911865234375</v>
+        <v>72.28677368164062</v>
       </c>
       <c r="C113">
-        <v>71.19004058837891</v>
+        <v>72.51845550537109</v>
       </c>
       <c r="D113">
-        <v>70.54563140869141</v>
+        <v>70.87197875976562</v>
       </c>
       <c r="E113">
-        <v>70.54563140869141</v>
+        <v>72.34501647949219</v>
       </c>
       <c r="F113">
-        <v>864544</v>
+        <v>49598304</v>
       </c>
       <c r="G113">
-        <v>71.17801396323716</v>
+        <v>70.9335003737617</v>
       </c>
       <c r="H113">
-        <v>72.0291301727295</v>
+        <v>70.83588905334473</v>
       </c>
       <c r="I113">
-        <v>71.65433451334636</v>
+        <v>70.18983561197916</v>
       </c>
       <c r="L113">
-        <v>42.93676972489477</v>
+        <v>68.09933930267545</v>
       </c>
       <c r="M113">
-        <v>47.3359546309046</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>63.02628847880062</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>70.53542327880859</v>
+        <v>72.33824157714844</v>
       </c>
       <c r="C114">
-        <v>70.85507202148438</v>
+        <v>72.33824157714844</v>
       </c>
       <c r="D114">
-        <v>69.33714294433594</v>
+        <v>68.74386596679688</v>
       </c>
       <c r="E114">
-        <v>69.50070953369141</v>
+        <v>69.51631927490234</v>
       </c>
       <c r="F114">
-        <v>20220160</v>
+        <v>64414112</v>
       </c>
       <c r="G114">
-        <v>71.02553174236937</v>
+        <v>70.80466572841085</v>
       </c>
       <c r="H114">
-        <v>71.85526504516602</v>
+        <v>70.91742668151855</v>
       </c>
       <c r="I114">
-        <v>71.73502934773764</v>
+        <v>70.20152282714844</v>
       </c>
       <c r="L114">
-        <v>35.42106218928504</v>
+        <v>37.56869419258083</v>
       </c>
       <c r="M114">
-        <v>42.09036523873726</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>42.99062970761855</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>69.51271820068359</v>
+        <v>69.49083709716797</v>
       </c>
       <c r="C115">
-        <v>70.67671966552734</v>
+        <v>69.81167602539062</v>
       </c>
       <c r="D115">
-        <v>69.51039886474609</v>
+        <v>68.04990386962891</v>
       </c>
       <c r="E115">
-        <v>70.10063934326172</v>
+        <v>68.54785919189453</v>
       </c>
       <c r="F115">
-        <v>5948960</v>
+        <v>29627392</v>
       </c>
       <c r="G115">
-        <v>70.94145061517776</v>
+        <v>70.59950149781845</v>
       </c>
       <c r="H115">
-        <v>71.60019493103027</v>
+        <v>70.91194038391113</v>
       </c>
       <c r="I115">
-        <v>71.80300318400064</v>
+        <v>70.19559453328451</v>
       </c>
       <c r="L115">
-        <v>41.98073082155478</v>
+        <v>32.03662474867216</v>
       </c>
       <c r="M115">
-        <v>45.80377995357793</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>38.48037436738927</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>70.10063934326172</v>
+        <v>68.56375122070312</v>
       </c>
       <c r="C116">
-        <v>70.30255889892578</v>
+        <v>68.67528533935547</v>
       </c>
       <c r="D116">
-        <v>69.05143737792969</v>
+        <v>67.07545471191406</v>
       </c>
       <c r="E116">
-        <v>69.25541687011719</v>
+        <v>67.3865966796875</v>
       </c>
       <c r="F116">
-        <v>4268256</v>
+        <v>39255776</v>
       </c>
       <c r="G116">
-        <v>70.78817482017224</v>
+        <v>70.30741924162473</v>
       </c>
       <c r="H116">
-        <v>71.33831443786622</v>
+        <v>70.83902435302734</v>
       </c>
       <c r="I116">
-        <v>71.78257776896159</v>
+        <v>70.12858200073242</v>
       </c>
       <c r="L116">
-        <v>36.15924927437698</v>
+        <v>26.7275190224809</v>
       </c>
       <c r="M116">
-        <v>41.74255595860081</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>33.88921659720019</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>69.22520446777344</v>
+        <v>67.3828125</v>
       </c>
       <c r="C117">
-        <v>69.83509826660156</v>
+        <v>68.03618621826172</v>
       </c>
       <c r="D117">
-        <v>69.16525268554688</v>
+        <v>66.91217041015625</v>
       </c>
       <c r="E117">
-        <v>69.83509826660156</v>
+        <v>67.27393341064453</v>
       </c>
       <c r="F117">
-        <v>4640288</v>
+        <v>3284416</v>
       </c>
       <c r="G117">
-        <v>70.70153149712037</v>
+        <v>70.03164780244471</v>
       </c>
       <c r="H117">
-        <v>71.18219833374023</v>
+        <v>70.68868560791016</v>
       </c>
       <c r="I117">
-        <v>71.73526051839193</v>
+        <v>70.05838750203451</v>
       </c>
       <c r="L117">
-        <v>42.32956783056737</v>
+        <v>26.25267320518889</v>
       </c>
       <c r="M117">
-        <v>45.32320444574897</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>33.47196238565773</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>69.87080383300781</v>
+        <v>67.2928466796875</v>
       </c>
       <c r="C118">
-        <v>70.0985107421875</v>
+        <v>68.04913330078125</v>
       </c>
       <c r="D118">
-        <v>69.39609527587891</v>
+        <v>67.2928466796875</v>
       </c>
       <c r="E118">
-        <v>69.70356750488281</v>
+        <v>68.04708099365234</v>
       </c>
       <c r="F118">
-        <v>8902528</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>70.61080749782604</v>
+        <v>69.85123263800904</v>
       </c>
       <c r="H118">
-        <v>71.02357292175293</v>
+        <v>70.56060447692872</v>
       </c>
       <c r="I118">
-        <v>71.68779017130534</v>
+        <v>70.01935450236003</v>
       </c>
       <c r="L118">
-        <v>41.31036842070195</v>
+        <v>35.14778408201207</v>
       </c>
       <c r="M118">
-        <v>44.65257985676541</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>39.02060845390477</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>69.70536804199219</v>
+        <v>68.04474639892578</v>
       </c>
       <c r="C119">
-        <v>70.06723785400391</v>
+        <v>68.31859588623047</v>
       </c>
       <c r="D119">
-        <v>69.52074432373047</v>
+        <v>67.50621795654297</v>
       </c>
       <c r="E119">
-        <v>69.57974243164062</v>
+        <v>67.59189605712891</v>
       </c>
       <c r="F119">
-        <v>2935936</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>70.517074309991</v>
+        <v>69.64583840338356</v>
       </c>
       <c r="H119">
-        <v>70.87726440429688</v>
+        <v>70.38116645812988</v>
       </c>
       <c r="I119">
-        <v>71.57542622884115</v>
+        <v>69.94264119466146</v>
       </c>
       <c r="L119">
-        <v>40.2831275477292</v>
+        <v>32.54761131316573</v>
       </c>
       <c r="M119">
-        <v>43.99263929088806</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>37.06082727773528</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>69.58750152587891</v>
+        <v>67.61238098144531</v>
       </c>
       <c r="C120">
-        <v>70.16880798339844</v>
+        <v>67.81578063964844</v>
       </c>
       <c r="D120">
-        <v>68.60191345214844</v>
+        <v>64.41072845458984</v>
       </c>
       <c r="E120">
-        <v>70.16880798339844</v>
+        <v>64.64662933349609</v>
       </c>
       <c r="F120">
-        <v>6530432</v>
+        <v>28106432</v>
       </c>
       <c r="G120">
-        <v>70.48541373484622</v>
+        <v>69.19136485157561</v>
       </c>
       <c r="H120">
-        <v>70.75982398986817</v>
+        <v>70.03628768920899</v>
       </c>
       <c r="I120">
-        <v>71.5183120727539</v>
+        <v>69.80202941894531</v>
       </c>
       <c r="L120">
-        <v>47.29697507616406</v>
+        <v>21.15528513854183</v>
       </c>
       <c r="M120">
-        <v>47.93489451709829</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>27.45300654901762</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>70.16387176513672</v>
+        <v>64.64902496337891</v>
       </c>
       <c r="C121">
-        <v>70.24994659423828</v>
+        <v>64.93112182617188</v>
       </c>
       <c r="D121">
-        <v>68.9720458984375</v>
+        <v>63.26130294799805</v>
       </c>
       <c r="E121">
-        <v>69.41709899902344</v>
+        <v>64.82931518554688</v>
       </c>
       <c r="F121">
-        <v>5288288</v>
+        <v>27994560</v>
       </c>
       <c r="G121">
-        <v>70.38829421340778</v>
+        <v>68.79481488193663</v>
       </c>
       <c r="H121">
-        <v>70.66471290588379</v>
+        <v>69.66797828674316</v>
       </c>
       <c r="I121">
-        <v>71.42708689371744</v>
+        <v>69.65576960245768</v>
       </c>
       <c r="L121">
-        <v>40.4726521701427</v>
+        <v>23.03511574927919</v>
       </c>
       <c r="M121">
-        <v>43.70702411855855</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>28.68792372361148</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>69.40769195556641</v>
+        <v>64.83335876464844</v>
       </c>
       <c r="C122">
-        <v>70.40702819824219</v>
+        <v>65.35124969482422</v>
       </c>
       <c r="D122">
-        <v>69.40326690673828</v>
+        <v>64.38677215576172</v>
       </c>
       <c r="E122">
-        <v>69.47220611572266</v>
+        <v>64.71879577636719</v>
       </c>
       <c r="F122">
-        <v>24115424</v>
+        <v>5438304</v>
       </c>
       <c r="G122">
-        <v>70.30501347725458</v>
+        <v>68.42426769052122</v>
       </c>
       <c r="H122">
-        <v>70.52884178161621</v>
+        <v>69.34999046325683</v>
       </c>
       <c r="I122">
-        <v>71.34310099283854</v>
+        <v>69.57538045247396</v>
       </c>
       <c r="L122">
-        <v>41.17268068507774</v>
+        <v>22.66729853009906</v>
       </c>
       <c r="M122">
-        <v>44.09629606282927</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>28.37326050532729</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>69.46499633789062</v>
+        <v>64.71221160888672</v>
       </c>
       <c r="C123">
-        <v>69.77773284912109</v>
+        <v>65.46601867675781</v>
       </c>
       <c r="D123">
-        <v>69.30789184570312</v>
+        <v>64.30895233154297</v>
       </c>
       <c r="E123">
-        <v>69.4447021484375</v>
+        <v>65.46303558349609</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>3044608</v>
       </c>
       <c r="G123">
-        <v>70.22680335645302</v>
+        <v>68.15506477170075</v>
       </c>
       <c r="H123">
-        <v>70.40069847106933</v>
+        <v>69.07576217651368</v>
       </c>
       <c r="I123">
-        <v>71.2353530883789</v>
+        <v>69.49130808512369</v>
       </c>
       <c r="L123">
-        <v>40.90260200009036</v>
+        <v>31.01253603648605</v>
       </c>
       <c r="M123">
-        <v>43.93300510189543</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>33.65091353069432</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>69.44313049316406</v>
+        <v>65.45223999023438</v>
       </c>
       <c r="C124">
-        <v>69.87574005126953</v>
+        <v>65.80843353271484</v>
       </c>
       <c r="D124">
-        <v>69.24318695068359</v>
+        <v>64.91190338134766</v>
       </c>
       <c r="E124">
-        <v>69.24318695068359</v>
+        <v>64.96874237060547</v>
       </c>
       <c r="F124">
-        <v>9715872</v>
+        <v>906656</v>
       </c>
       <c r="G124">
-        <v>70.13738368320125</v>
+        <v>67.86539909887391</v>
       </c>
       <c r="H124">
-        <v>70.26345977783203</v>
+        <v>68.78771171569824</v>
       </c>
       <c r="I124">
-        <v>71.11085891723633</v>
+        <v>69.39408060709636</v>
       </c>
       <c r="L124">
-        <v>38.80449245999959</v>
+        <v>28.69855485956985</v>
       </c>
       <c r="M124">
-        <v>42.68579239602043</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>31.96624777159354</v>
+      </c>
+      <c r="N124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>69.24262237548828</v>
+        <v>64.96869659423828</v>
       </c>
       <c r="C125">
-        <v>69.51541137695312</v>
+        <v>65.66205596923828</v>
       </c>
       <c r="D125">
-        <v>69.06266784667969</v>
+        <v>64.90651702880859</v>
       </c>
       <c r="E125">
-        <v>69.16570281982422</v>
+        <v>65.34765625</v>
       </c>
       <c r="F125">
-        <v>4055168</v>
+        <v>7687808</v>
       </c>
       <c r="G125">
-        <v>70.04904905925788</v>
+        <v>67.63651338533991</v>
       </c>
       <c r="H125">
-        <v>70.15177841186524</v>
+        <v>68.49023971557617</v>
       </c>
       <c r="I125">
-        <v>70.90964762369792</v>
+        <v>69.28374964396158</v>
       </c>
       <c r="L125">
-        <v>37.96215604606834</v>
+        <v>33.0092356268954</v>
       </c>
       <c r="M125">
-        <v>42.18983193475213</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>34.66643450901307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>69.15418243408203</v>
+        <v>65.34706115722656</v>
       </c>
       <c r="C126">
-        <v>69.40242004394531</v>
+        <v>66.13803863525391</v>
       </c>
       <c r="D126">
-        <v>68.7257080078125</v>
+        <v>65.31946563720703</v>
       </c>
       <c r="E126">
-        <v>68.7257080078125</v>
+        <v>65.7098388671875</v>
       </c>
       <c r="F126">
-        <v>3756896</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>69.92874532730831</v>
+        <v>67.46136115641696</v>
       </c>
       <c r="H126">
-        <v>69.99119453430175</v>
+        <v>68.20926704406739</v>
       </c>
       <c r="I126">
-        <v>70.71740366617838</v>
+        <v>69.1792470296224</v>
       </c>
       <c r="L126">
-        <v>33.33895421997914</v>
+        <v>37.09852612107611</v>
       </c>
       <c r="M126">
-        <v>39.39097974547542</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>37.23084435102171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>68.71160888671875</v>
+        <v>65.71440887451172</v>
       </c>
       <c r="C127">
-        <v>69.53562164306641</v>
+        <v>65.81833648681641</v>
       </c>
       <c r="D127">
-        <v>68.59004974365234</v>
+        <v>64.908447265625</v>
       </c>
       <c r="E127">
-        <v>69.39697265625</v>
+        <v>65.40956115722656</v>
       </c>
       <c r="F127">
-        <v>1904672</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>69.88040235721209</v>
+        <v>67.27483388376328</v>
       </c>
       <c r="H127">
-        <v>69.87749366760254</v>
+        <v>67.91032180786132</v>
       </c>
       <c r="I127">
-        <v>70.59872207641601</v>
+        <v>69.01687545776367</v>
       </c>
       <c r="L127">
-        <v>44.86363394007287</v>
+        <v>35.10009433683095</v>
       </c>
       <c r="M127">
-        <v>45.34775331312074</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>35.97025182129192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>69.39806365966797</v>
+        <v>65.41646575927734</v>
       </c>
       <c r="C128">
-        <v>69.59100341796875</v>
+        <v>65.93850708007812</v>
       </c>
       <c r="D128">
-        <v>69.18761444091797</v>
+        <v>65.26864624023438</v>
       </c>
       <c r="E128">
-        <v>69.37976837158203</v>
+        <v>65.70217132568359</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>136608</v>
       </c>
       <c r="G128">
-        <v>69.83489017670027</v>
+        <v>67.13186456030149</v>
       </c>
       <c r="H128">
-        <v>69.76052246093749</v>
+        <v>67.64211082458496</v>
       </c>
       <c r="I128">
-        <v>70.48217849731445</v>
+        <v>68.85332438151042</v>
       </c>
       <c r="L128">
-        <v>44.64110472194639</v>
+        <v>38.71900075024995</v>
       </c>
       <c r="M128">
-        <v>45.22507137839815</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>38.16730721219678</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>69.38743591308594</v>
+        <v>65.69984436035156</v>
       </c>
       <c r="C129">
-        <v>69.74671936035156</v>
+        <v>66.29458618164062</v>
       </c>
       <c r="D129">
-        <v>68.89469909667969</v>
+        <v>65.45751190185547</v>
       </c>
       <c r="E129">
-        <v>69.21807098388672</v>
+        <v>66.14366149902344</v>
       </c>
       <c r="F129">
-        <v>5827072</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>69.77881570462631</v>
+        <v>67.04202791836713</v>
       </c>
       <c r="H129">
-        <v>69.70388145446778</v>
+        <v>67.40781059265137</v>
       </c>
       <c r="I129">
-        <v>70.37258377075196</v>
+        <v>68.68542455037435</v>
       </c>
       <c r="L129">
-        <v>42.41653175769815</v>
+        <v>44.01768778131566</v>
       </c>
       <c r="M129">
-        <v>44.01969429568776</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>41.43266650744486</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>69.21807098388672</v>
+        <v>66.14049530029297</v>
       </c>
       <c r="C130">
-        <v>69.92161560058594</v>
+        <v>66.14049530029297</v>
       </c>
       <c r="D130">
-        <v>69.14122772216797</v>
+        <v>65.45698547363281</v>
       </c>
       <c r="E130">
-        <v>69.89329528808594</v>
+        <v>65.66548919677734</v>
       </c>
       <c r="F130">
-        <v>3285216</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>69.78922293948628</v>
+        <v>66.91688803458624</v>
       </c>
       <c r="H130">
-        <v>69.70802726745606</v>
+        <v>67.16012496948242</v>
       </c>
       <c r="I130">
-        <v>70.2851064046224</v>
+        <v>68.48946736653646</v>
       </c>
       <c r="L130">
-        <v>53.3398673251635</v>
+        <v>39.8221902460087</v>
       </c>
       <c r="M130">
-        <v>50.01132503308602</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+        <v>39.0286137268203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>69.90066528320312</v>
+        <v>65.66488647460938</v>
       </c>
       <c r="C131">
-        <v>70.23684692382812</v>
+        <v>65.79764556884766</v>
       </c>
       <c r="D131">
-        <v>68.83811950683594</v>
+        <v>65.27376556396484</v>
       </c>
       <c r="E131">
-        <v>68.86498260498047</v>
+        <v>65.78574371337891</v>
       </c>
       <c r="F131">
-        <v>1474784</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>69.70520109089485</v>
+        <v>66.81405673265829</v>
       </c>
       <c r="H131">
-        <v>69.59133567810059</v>
+        <v>66.8700611114502</v>
       </c>
       <c r="I131">
-        <v>70.20329513549805</v>
+        <v>68.27580871582032</v>
       </c>
       <c r="L131">
-        <v>40.25641850502021</v>
+        <v>41.40236754026182</v>
       </c>
       <c r="M131">
-        <v>42.54334398309597</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>39.97192963996841</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>68.86991119384766</v>
+        <v>65.78575134277344</v>
       </c>
       <c r="C132">
-        <v>69.24720764160156</v>
+        <v>65.80004119873047</v>
       </c>
       <c r="D132">
-        <v>68.21662902832031</v>
+        <v>65.41243743896484</v>
       </c>
       <c r="E132">
-        <v>69.21710968017578</v>
+        <v>65.62462615966797</v>
       </c>
       <c r="F132">
-        <v>6601440</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>69.66082914446584</v>
+        <v>66.70592668056825</v>
       </c>
       <c r="H132">
-        <v>69.5064208984375</v>
+        <v>66.53619842529297</v>
       </c>
       <c r="I132">
-        <v>70.10421117146809</v>
+        <v>68.09401117960611</v>
       </c>
       <c r="L132">
-        <v>45.41434972544948</v>
+        <v>39.82609555742525</v>
       </c>
       <c r="M132">
-        <v>45.54218844527946</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>39.09911078869752</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>69.21810913085938</v>
+        <v>65.62541198730469</v>
       </c>
       <c r="C133">
-        <v>69.85474395751953</v>
+        <v>65.71227264404297</v>
       </c>
       <c r="D133">
-        <v>67.13047027587891</v>
+        <v>64.67376708984375</v>
       </c>
       <c r="E133">
-        <v>67.13047027587891</v>
+        <v>64.87899017333984</v>
       </c>
       <c r="F133">
-        <v>72102752</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>69.43079652004884</v>
+        <v>66.53984154354748</v>
       </c>
       <c r="H133">
-        <v>69.33566284179688</v>
+        <v>66.16289710998535</v>
       </c>
       <c r="I133">
-        <v>69.94164123535157</v>
+        <v>67.8917241414388</v>
       </c>
       <c r="L133">
-        <v>28.82439985480115</v>
+        <v>33.23777848214448</v>
       </c>
       <c r="M133">
-        <v>34.16317739356347</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <v>35.26167895044448</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>67.16260528564453</v>
+        <v>64.87532043457031</v>
       </c>
       <c r="C134">
-        <v>68.18084716796875</v>
+        <v>65.71381378173828</v>
       </c>
       <c r="D134">
-        <v>66.6109619140625</v>
+        <v>64.66396331787109</v>
       </c>
       <c r="E134">
-        <v>67.98520660400391</v>
+        <v>65.71080780029297</v>
       </c>
       <c r="F134">
-        <v>61113408</v>
+        <v>2069856</v>
       </c>
       <c r="G134">
-        <v>69.29937925495385</v>
+        <v>66.46447483961525</v>
       </c>
       <c r="H134">
-        <v>69.2598876953125</v>
+        <v>65.97262153625488</v>
       </c>
       <c r="I134">
-        <v>69.8082160949707</v>
+        <v>67.7244260152181</v>
       </c>
       <c r="L134">
-        <v>39.07975886300412</v>
+        <v>44.71568044728609</v>
       </c>
       <c r="M134">
-        <v>40.69929586154428</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+        <v>42.08999112661174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>67.99488067626953</v>
+        <v>65.72445678710938</v>
       </c>
       <c r="C135">
-        <v>68.52352905273438</v>
+        <v>65.85703277587891</v>
       </c>
       <c r="D135">
-        <v>67.12335205078125</v>
+        <v>65.41762542724609</v>
       </c>
       <c r="E135">
-        <v>67.88556671142578</v>
+        <v>65.50862884521484</v>
       </c>
       <c r="F135">
-        <v>12775328</v>
+        <v>254976</v>
       </c>
       <c r="G135">
-        <v>69.17085084190583</v>
+        <v>66.37757974921522</v>
       </c>
       <c r="H135">
-        <v>69.14913406372071</v>
+        <v>65.8206600189209</v>
       </c>
       <c r="I135">
-        <v>69.69109064737955</v>
+        <v>67.53147710164389</v>
       </c>
       <c r="L135">
-        <v>38.35499706347618</v>
+        <v>42.70797029762397</v>
       </c>
       <c r="M135">
-        <v>40.19828818202078</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <v>40.95916573915519</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>67.88556671142578</v>
+        <v>65.49834442138672</v>
       </c>
       <c r="C136">
-        <v>68.69427490234375</v>
+        <v>65.93384552001953</v>
       </c>
       <c r="D136">
-        <v>67.87293243408203</v>
+        <v>65.25973510742188</v>
       </c>
       <c r="E136">
-        <v>68.65758514404297</v>
+        <v>65.68524169921875</v>
       </c>
       <c r="F136">
-        <v>5800928</v>
+        <v>1441216</v>
       </c>
       <c r="G136">
-        <v>69.1241903239183</v>
+        <v>66.31463992648827</v>
       </c>
       <c r="H136">
-        <v>69.11924247741699</v>
+        <v>65.73559226989747</v>
       </c>
       <c r="I136">
-        <v>69.58176396687826</v>
+        <v>67.34334208170573</v>
       </c>
       <c r="L136">
-        <v>46.93348811747104</v>
+        <v>45.1291217950389</v>
       </c>
       <c r="M136">
-        <v>45.7686918728286</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <v>42.41462469183949</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>68.65982055664062</v>
+        <v>65.68373107910156</v>
       </c>
       <c r="C137">
-        <v>69.00709533691406</v>
+        <v>65.74950408935547</v>
       </c>
       <c r="D137">
-        <v>68.28050994873047</v>
+        <v>65.32200622558594</v>
       </c>
       <c r="E137">
-        <v>68.84491729736328</v>
+        <v>65.44609069824219</v>
       </c>
       <c r="F137">
-        <v>727552</v>
+        <v>404352</v>
       </c>
       <c r="G137">
-        <v>69.09880186695875</v>
+        <v>66.23568090573862</v>
       </c>
       <c r="H137">
-        <v>69.06973342895508</v>
+        <v>65.64420013427734</v>
       </c>
       <c r="I137">
-        <v>69.48756154378255</v>
+        <v>67.14526290893555</v>
       </c>
       <c r="L137">
-        <v>48.87561801636623</v>
+        <v>42.39956831141743</v>
       </c>
       <c r="M137">
-        <v>47.05737998672353</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>40.94278851935709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>68.84273529052734</v>
+        <v>65.45161437988281</v>
       </c>
       <c r="C138">
-        <v>70.53369140625</v>
+        <v>66.83551788330078</v>
       </c>
       <c r="D138">
-        <v>68.72600555419922</v>
+        <v>65.45161437988281</v>
       </c>
       <c r="E138">
-        <v>70.28070831298828</v>
+        <v>66.82917022705078</v>
       </c>
       <c r="F138">
-        <v>46404672</v>
+        <v>15498304</v>
       </c>
       <c r="G138">
-        <v>69.20624790750689</v>
+        <v>66.28963448040336</v>
       </c>
       <c r="H138">
-        <v>69.09859046936035</v>
+        <v>65.58330459594727</v>
       </c>
       <c r="I138">
-        <v>69.43961207071941</v>
+        <v>67.00402221679687</v>
       </c>
       <c r="L138">
-        <v>61.13884711075879</v>
+        <v>58.66539097054387</v>
       </c>
       <c r="M138">
-        <v>55.73869552141391</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+        <v>51.43817582123079</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>70.26123809814453</v>
+        <v>66.83074188232422</v>
       </c>
       <c r="C139">
-        <v>70.93137359619141</v>
+        <v>67.01071166992188</v>
       </c>
       <c r="D139">
-        <v>67.64324951171875</v>
+        <v>66.44023895263672</v>
       </c>
       <c r="E139">
-        <v>70.60870361328125</v>
+        <v>67.00706481933594</v>
       </c>
       <c r="F139">
-        <v>18920576</v>
+        <v>5252208</v>
       </c>
       <c r="G139">
-        <v>69.3337438807591</v>
+        <v>66.35485542030632</v>
       </c>
       <c r="H139">
-        <v>69.15003852844238</v>
+        <v>65.55406303405762</v>
       </c>
       <c r="I139">
-        <v>69.44820582071939</v>
+        <v>66.87660217285156</v>
       </c>
       <c r="L139">
-        <v>63.39537959549381</v>
+        <v>60.28809434166361</v>
       </c>
       <c r="M139">
-        <v>57.45498243832811</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>52.6048765469161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>70.59907531738281</v>
+        <v>67.00637054443359</v>
       </c>
       <c r="C140">
-        <v>71.41926574707031</v>
+        <v>67.50267791748047</v>
       </c>
       <c r="D140">
-        <v>70.42073822021484</v>
+        <v>66.97577667236328</v>
       </c>
       <c r="E140">
-        <v>71.18065643310547</v>
+        <v>67.22783660888672</v>
       </c>
       <c r="F140">
-        <v>4582240</v>
+        <v>6321760</v>
       </c>
       <c r="G140">
-        <v>69.5016450218815</v>
+        <v>66.4342173465409</v>
       </c>
       <c r="H140">
-        <v>69.20063095092773</v>
+        <v>65.68312339782715</v>
       </c>
       <c r="I140">
-        <v>69.49388173421224</v>
+        <v>66.76355667114258</v>
       </c>
       <c r="L140">
-        <v>67.1386903662184</v>
+        <v>62.35159783005238</v>
       </c>
       <c r="M140">
-        <v>60.34277052719168</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>54.07935348603664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>71.18571472167969</v>
+        <v>67.23495483398438</v>
       </c>
       <c r="C141">
-        <v>72.01357269287109</v>
+        <v>67.36491394042969</v>
       </c>
       <c r="D141">
-        <v>70.64440155029297</v>
+        <v>66.87297058105469</v>
       </c>
       <c r="E141">
-        <v>71.54420471191406</v>
+        <v>67.02870941162109</v>
       </c>
       <c r="F141">
-        <v>26729888</v>
+        <v>3731840</v>
       </c>
       <c r="G141">
-        <v>69.68733226642991</v>
+        <v>66.48826207973001</v>
       </c>
       <c r="H141">
-        <v>69.30698623657227</v>
+        <v>65.79309310913087</v>
       </c>
       <c r="I141">
-        <v>69.50539474487304</v>
+        <v>66.61161295572917</v>
       </c>
       <c r="L141">
-        <v>69.37797016135794</v>
+        <v>59.2287107281978</v>
       </c>
       <c r="M141">
-        <v>62.10353739463899</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+        <v>52.49307999149597</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>71.54438781738281</v>
+        <v>67.03558349609375</v>
       </c>
       <c r="C142">
-        <v>72.67486572265625</v>
+        <v>67.44851684570312</v>
       </c>
       <c r="D142">
-        <v>71.46526336669922</v>
+        <v>67.00996398925781</v>
       </c>
       <c r="E142">
-        <v>72.19550323486328</v>
+        <v>67.22797393798828</v>
       </c>
       <c r="F142">
-        <v>28264544</v>
+        <v>2802032</v>
       </c>
       <c r="G142">
-        <v>69.91534780901476</v>
+        <v>66.55550861229894</v>
       </c>
       <c r="H142">
-        <v>69.44315109252929</v>
+        <v>65.91855201721191</v>
       </c>
       <c r="I142">
-        <v>69.54806467692057</v>
+        <v>66.44248275756836</v>
       </c>
       <c r="L142">
-        <v>73.07572440493028</v>
+        <v>61.40488166642454</v>
       </c>
       <c r="M142">
-        <v>65.09364407714548</v>
-      </c>
-      <c r="O142" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>53.94877975856523</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>72.17988586425781</v>
+        <v>67.22640991210938</v>
       </c>
       <c r="C143">
-        <v>72.216064453125</v>
+        <v>67.28086090087891</v>
       </c>
       <c r="D143">
-        <v>71.02234649658203</v>
+        <v>66.42139434814453</v>
       </c>
       <c r="E143">
-        <v>71.07855224609375</v>
+        <v>66.50531768798828</v>
       </c>
       <c r="F143">
-        <v>26113632</v>
+        <v>3600864</v>
       </c>
       <c r="G143">
-        <v>70.02109366693104</v>
+        <v>66.55094580099797</v>
       </c>
       <c r="H143">
-        <v>69.52484359741212</v>
+        <v>65.97066612243653</v>
       </c>
       <c r="I143">
-        <v>69.56582870483399</v>
+        <v>66.24782613118489</v>
       </c>
       <c r="L143">
-        <v>59.26777367562998</v>
+        <v>50.42414662289027</v>
       </c>
       <c r="M143">
-        <v>56.81449224731679</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <v>48.18255912562024</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>71.08066558837891</v>
+        <v>66.50778961181641</v>
       </c>
       <c r="C144">
-        <v>71.35654449462891</v>
+        <v>67.09397888183594</v>
       </c>
       <c r="D144">
-        <v>70.66716003417969</v>
+        <v>66.44164276123047</v>
       </c>
       <c r="E144">
-        <v>70.94760131835938</v>
+        <v>67.05538940429688</v>
       </c>
       <c r="F144">
-        <v>560256</v>
+        <v>1311376</v>
       </c>
       <c r="G144">
-        <v>70.1053216352427</v>
+        <v>66.59680431038878</v>
       </c>
       <c r="H144">
-        <v>69.6100643157959</v>
+        <v>66.07499847412109</v>
       </c>
       <c r="I144">
-        <v>69.61405843098959</v>
+        <v>66.16579513549804</v>
       </c>
       <c r="L144">
-        <v>57.82661806033312</v>
+        <v>57.00768562534968</v>
       </c>
       <c r="M144">
-        <v>55.91655331481022</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>52.3568466796554</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>70.93727874755859</v>
+        <v>67.05450439453125</v>
       </c>
       <c r="C145">
-        <v>71.06031036376953</v>
+        <v>67.25535583496094</v>
       </c>
       <c r="D145">
-        <v>70.60953521728516</v>
+        <v>66.95841217041016</v>
       </c>
       <c r="E145">
-        <v>70.72975158691406</v>
+        <v>67.147705078125</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>70.16208799448555</v>
+        <v>66.6468861983648</v>
       </c>
       <c r="H145">
-        <v>69.68826675415039</v>
+        <v>66.16500091552734</v>
       </c>
       <c r="I145">
-        <v>69.63502883911133</v>
+        <v>66.11912333170572</v>
       </c>
       <c r="L145">
-        <v>55.30955885586861</v>
+        <v>58.05924573314329</v>
       </c>
       <c r="M145">
-        <v>54.37685756467334</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>53.04055392217668</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>70.73094177246094</v>
+        <v>67.14896392822266</v>
       </c>
       <c r="C146">
-        <v>71.32648468017578</v>
+        <v>68.18953704833984</v>
       </c>
       <c r="D146">
-        <v>70.66415405273438</v>
+        <v>67.14896392822266</v>
       </c>
       <c r="E146">
-        <v>71.29709625244141</v>
+        <v>68.12915802001953</v>
       </c>
       <c r="F146">
-        <v>5211072</v>
+        <v>2828128</v>
       </c>
       <c r="G146">
-        <v>70.26527056339063</v>
+        <v>66.7816381821516</v>
       </c>
       <c r="H146">
-        <v>69.81683616638183</v>
+        <v>66.28596687316895</v>
       </c>
       <c r="I146">
-        <v>69.70308481852213</v>
+        <v>66.14387537638346</v>
       </c>
       <c r="L146">
-        <v>60.36425580916271</v>
+        <v>67.55175533307212</v>
       </c>
       <c r="M146">
-        <v>57.64760578604724</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>59.66737036535323</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>71.29935455322266</v>
+        <v>68.11943054199219</v>
       </c>
       <c r="C147">
-        <v>71.57638549804688</v>
+        <v>68.28166198730469</v>
       </c>
       <c r="D147">
-        <v>71.22786712646484</v>
+        <v>68.04654693603516</v>
       </c>
       <c r="E147">
-        <v>71.32929229736328</v>
+        <v>68.08534240722656</v>
       </c>
       <c r="F147">
-        <v>1384832</v>
+        <v>114400</v>
       </c>
       <c r="G147">
-        <v>70.36199981193359</v>
+        <v>66.9001567480675</v>
       </c>
       <c r="H147">
-        <v>69.9134521484375</v>
+        <v>66.41975593566895</v>
       </c>
       <c r="I147">
-        <v>69.75289128621419</v>
+        <v>66.17092234293619</v>
       </c>
       <c r="L147">
-        <v>60.64840790314399</v>
+        <v>66.79250589843656</v>
       </c>
       <c r="M147">
-        <v>57.83235453348402</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>59.26527747877527</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>71.32337951660156</v>
+        <v>68.07875823974609</v>
       </c>
       <c r="C148">
-        <v>71.42817687988281</v>
+        <v>68.30608367919922</v>
       </c>
       <c r="D148">
-        <v>70.98361968994141</v>
+        <v>67.83903503417969</v>
       </c>
       <c r="E148">
-        <v>71.38846588134766</v>
+        <v>68.27464294433594</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1450976</v>
       </c>
       <c r="G148">
-        <v>70.45531490915305</v>
+        <v>67.02511003863735</v>
       </c>
       <c r="H148">
-        <v>70.01388702392578</v>
+        <v>66.54837951660156</v>
       </c>
       <c r="I148">
-        <v>69.80905456542969</v>
+        <v>66.17850774129232</v>
       </c>
       <c r="L148">
-        <v>61.22320377486795</v>
+        <v>68.51262971325353</v>
       </c>
       <c r="M148">
-        <v>58.19331472147411</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>60.50365770679503</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>71.38802337646484</v>
+        <v>68.27411651611328</v>
       </c>
       <c r="C149">
-        <v>71.39370727539062</v>
+        <v>68.44358825683594</v>
       </c>
       <c r="D149">
-        <v>71.06639099121094</v>
+        <v>67.85750579833984</v>
       </c>
       <c r="E149">
-        <v>71.06639099121094</v>
+        <v>67.86437225341797</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>8199136</v>
       </c>
       <c r="G149">
-        <v>70.51086728024922</v>
+        <v>67.10140660361741</v>
       </c>
       <c r="H149">
-        <v>70.10630302429199</v>
+        <v>66.63441505432129</v>
       </c>
       <c r="I149">
-        <v>69.85860951741536</v>
+        <v>66.18759028116862</v>
       </c>
       <c r="L149">
-        <v>56.1969374498034</v>
+        <v>60.82995777638985</v>
       </c>
       <c r="M149">
-        <v>55.41293091448952</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>56.49496883483391</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>71.06639099121094</v>
+        <v>67.86420440673828</v>
       </c>
       <c r="C150">
-        <v>71.33068084716797</v>
+        <v>68.10417175292969</v>
       </c>
       <c r="D150">
-        <v>70.72990417480469</v>
+        <v>67.67055511474609</v>
       </c>
       <c r="E150">
-        <v>70.82966613769531</v>
+        <v>67.74060821533203</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>2080368</v>
       </c>
       <c r="G150">
-        <v>70.53984899456249</v>
+        <v>67.159515841046</v>
       </c>
       <c r="H150">
-        <v>70.15312156677246</v>
+        <v>66.73817100524903</v>
       </c>
       <c r="I150">
-        <v>69.88063812255859</v>
+        <v>66.29072291056315</v>
       </c>
       <c r="L150">
-        <v>52.62455927242347</v>
+        <v>58.59990538392739</v>
       </c>
       <c r="M150">
-        <v>53.39366703642171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>55.30457561250436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>70.82870483398438</v>
+        <v>67.73951721191406</v>
       </c>
       <c r="C151">
-        <v>70.91283416748047</v>
+        <v>67.88069152832031</v>
       </c>
       <c r="D151">
-        <v>70.5462646484375</v>
+        <v>67.43647766113281</v>
       </c>
       <c r="E151">
-        <v>70.61920166015625</v>
+        <v>67.60200500488281</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>7271984</v>
       </c>
       <c r="G151">
-        <v>70.54706287325283</v>
+        <v>67.19974212866752</v>
       </c>
       <c r="H151">
-        <v>70.24083251953125</v>
+        <v>66.82898406982422</v>
       </c>
       <c r="I151">
-        <v>69.92070821126302</v>
+        <v>66.38314590454101</v>
       </c>
       <c r="J151">
-        <v>70.24538040161133</v>
+        <v>68.29535924275716</v>
       </c>
       <c r="L151">
-        <v>49.47862344616961</v>
+        <v>56.01278829198017</v>
       </c>
       <c r="M151">
-        <v>51.59356499293241</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>53.93398828787543</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>70.62123870849609</v>
+        <v>67.60735321044922</v>
       </c>
       <c r="C152">
-        <v>72.14863586425781</v>
+        <v>68.18891143798828</v>
       </c>
       <c r="D152">
-        <v>70.62123870849609</v>
+        <v>67.40785217285156</v>
       </c>
       <c r="E152">
-        <v>71.58702087402344</v>
+        <v>67.90671539306641</v>
       </c>
       <c r="F152">
-        <v>13518256</v>
+        <v>2624400</v>
       </c>
       <c r="G152">
-        <v>70.64160450968652</v>
+        <v>67.26401242543105</v>
       </c>
       <c r="H152">
-        <v>70.35932807922363</v>
+        <v>66.94308853149414</v>
       </c>
       <c r="I152">
-        <v>69.99120203653972</v>
+        <v>66.48940989176432</v>
       </c>
       <c r="J152">
-        <v>70.26315047409361</v>
+        <v>68.29021164209901</v>
       </c>
       <c r="L152">
-        <v>61.41238342530317</v>
+        <v>60.34296755581856</v>
       </c>
       <c r="M152">
-        <v>58.51913191252123</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>56.48705841814515</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>71.61471557617188</v>
+        <v>67.91341400146484</v>
       </c>
       <c r="C153">
-        <v>72.54460144042969</v>
+        <v>68.42464447021484</v>
       </c>
       <c r="D153">
-        <v>71.44506072998047</v>
+        <v>67.58433532714844</v>
       </c>
       <c r="E153">
-        <v>72.3018798828125</v>
+        <v>68.40477752685547</v>
       </c>
       <c r="F153">
-        <v>44735760</v>
+        <v>12453792</v>
       </c>
       <c r="G153">
-        <v>70.79253863451615</v>
+        <v>67.36771834374235</v>
       </c>
       <c r="H153">
-        <v>70.61789855957031</v>
+        <v>67.11937789916992</v>
       </c>
       <c r="I153">
-        <v>70.08644129435221</v>
+        <v>66.58746795654297</v>
       </c>
       <c r="J153">
-        <v>70.29015351261968</v>
+        <v>68.29172907103619</v>
       </c>
       <c r="L153">
-        <v>67.74371609777027</v>
+        <v>66.4213907570911</v>
       </c>
       <c r="M153">
-        <v>62.75752825270578</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>60.35476950895362</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>72.28677368164062</v>
+        <v>68.39154815673828</v>
       </c>
       <c r="C154">
-        <v>72.51845550537109</v>
+        <v>68.49504852294922</v>
       </c>
       <c r="D154">
-        <v>70.87197875976562</v>
+        <v>67.99955749511719</v>
       </c>
       <c r="E154">
-        <v>72.34501647949219</v>
+        <v>68.11540985107422</v>
       </c>
       <c r="F154">
-        <v>49598304</v>
+        <v>4824304</v>
       </c>
       <c r="G154">
-        <v>70.93367298405941</v>
+        <v>67.43569029895434</v>
       </c>
       <c r="H154">
-        <v>70.83588905334473</v>
+        <v>67.23960800170899</v>
       </c>
       <c r="I154">
-        <v>70.18983561197916</v>
+        <v>66.69235687255859</v>
       </c>
       <c r="J154">
-        <v>70.31737024065772</v>
+        <v>68.28939371712941</v>
       </c>
       <c r="L154">
-        <v>68.09904365283707</v>
+        <v>60.3730930305612</v>
       </c>
       <c r="M154">
-        <v>63.00318473977702</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>57.17501880025992</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>72.33824157714844</v>
+        <v>68.11604309082031</v>
       </c>
       <c r="C155">
-        <v>72.33824157714844</v>
+        <v>68.12619018554688</v>
       </c>
       <c r="D155">
-        <v>68.74386596679688</v>
+        <v>67.43968963623047</v>
       </c>
       <c r="E155">
-        <v>69.51631927490234</v>
+        <v>67.47217559814453</v>
       </c>
       <c r="F155">
-        <v>64414112</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>70.80482264686331</v>
+        <v>67.43900714433526</v>
       </c>
       <c r="H155">
-        <v>70.91742668151855</v>
+        <v>67.33778533935546</v>
       </c>
       <c r="I155">
-        <v>70.20152282714844</v>
+        <v>66.76317418416342</v>
       </c>
       <c r="J155">
-        <v>70.30676029409143</v>
+        <v>68.27856963608326</v>
       </c>
       <c r="L155">
-        <v>37.56861719517588</v>
+        <v>49.17505957890348</v>
       </c>
       <c r="M155">
-        <v>42.98162719086034</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>50.77167527797575</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>69.49083709716797</v>
+        <v>67.47092437744141</v>
       </c>
       <c r="C156">
-        <v>69.81167602539062</v>
+        <v>67.79656982421875</v>
       </c>
       <c r="D156">
-        <v>68.04990386962891</v>
+        <v>67.39234924316406</v>
       </c>
       <c r="E156">
-        <v>68.54785919189453</v>
+        <v>67.57699584960938</v>
       </c>
       <c r="F156">
-        <v>29627392</v>
+        <v>20806240</v>
       </c>
       <c r="G156">
-        <v>70.59964415095706</v>
+        <v>67.45155157208745</v>
       </c>
       <c r="H156">
-        <v>70.91194038391113</v>
+        <v>67.432373046875</v>
       </c>
       <c r="I156">
-        <v>70.19559453328451</v>
+        <v>66.82541275024414</v>
       </c>
       <c r="J156">
-        <v>70.28346359075107</v>
+        <v>68.2692772680505</v>
       </c>
       <c r="L156">
-        <v>32.03657239392613</v>
+        <v>50.84646440916161</v>
       </c>
       <c r="M156">
-        <v>38.47367802474439</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>51.72058136925114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>68.56375122070312</v>
+        <v>67.57964324951172</v>
       </c>
       <c r="C157">
-        <v>68.67528533935547</v>
+        <v>67.64468383789062</v>
       </c>
       <c r="D157">
-        <v>67.07545471191406</v>
+        <v>66.92247009277344</v>
       </c>
       <c r="E157">
-        <v>67.3865966796875</v>
+        <v>67.47987365722656</v>
       </c>
       <c r="F157">
-        <v>39255776</v>
+        <v>5854112</v>
       </c>
       <c r="G157">
-        <v>70.30754892629619</v>
+        <v>67.4541263071001</v>
       </c>
       <c r="H157">
-        <v>70.83902435302734</v>
+        <v>67.53406219482422</v>
       </c>
       <c r="I157">
-        <v>70.12858200073242</v>
+        <v>66.89442316691081</v>
       </c>
       <c r="J157">
-        <v>70.24509449259128</v>
+        <v>68.25882159108595</v>
       </c>
       <c r="L157">
-        <v>26.72748599638891</v>
+        <v>49.16125626393126</v>
       </c>
       <c r="M157">
-        <v>33.88454003570656</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>50.74456814473609</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>67.3828125</v>
+        <v>67.49803924560547</v>
       </c>
       <c r="C158">
-        <v>68.03618621826172</v>
+        <v>68.52765655517578</v>
       </c>
       <c r="D158">
-        <v>66.91217041015625</v>
+        <v>67.37519073486328</v>
       </c>
       <c r="E158">
-        <v>67.27393341064453</v>
+        <v>68.43158721923828</v>
       </c>
       <c r="F158">
-        <v>3284416</v>
+        <v>26122384</v>
       </c>
       <c r="G158">
-        <v>70.03176569760058</v>
+        <v>67.54298639002174</v>
       </c>
       <c r="H158">
-        <v>70.68868560791016</v>
+        <v>67.61418304443359</v>
       </c>
       <c r="I158">
-        <v>70.05838750203451</v>
+        <v>66.98540369669597</v>
       </c>
       <c r="J158">
-        <v>70.20574136567808</v>
+        <v>68.26110987755153</v>
       </c>
       <c r="L158">
-        <v>26.25264170167021</v>
+        <v>62.76559670406742</v>
       </c>
       <c r="M158">
-        <v>33.4674529932045</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>58.92446766417234</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>67.2928466796875</v>
+        <v>68.42512512207031</v>
       </c>
       <c r="C159">
-        <v>68.04913330078125</v>
+        <v>68.70699310302734</v>
       </c>
       <c r="D159">
-        <v>67.2928466796875</v>
+        <v>68.36732482910156</v>
       </c>
       <c r="E159">
-        <v>68.04708099365234</v>
+        <v>68.46553802490234</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>2283488</v>
       </c>
       <c r="G159">
-        <v>69.85133981542346</v>
+        <v>67.62685472046543</v>
       </c>
       <c r="H159">
-        <v>70.56060447692872</v>
+        <v>67.68710670471191</v>
       </c>
       <c r="I159">
-        <v>70.01935450236003</v>
+        <v>67.06279958089193</v>
       </c>
       <c r="J159">
-        <v>70.17714983757179</v>
+        <v>68.26381753513235</v>
       </c>
       <c r="L159">
-        <v>35.1477409622706</v>
+        <v>63.161222174343</v>
       </c>
       <c r="M159">
-        <v>39.0151390749601</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>59.1848691993916</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>68.04474639892578</v>
+        <v>68.45301055908203</v>
       </c>
       <c r="C160">
-        <v>68.31859588623047</v>
+        <v>68.64164733886719</v>
       </c>
       <c r="D160">
-        <v>67.50621795654297</v>
+        <v>68.05349731445312</v>
       </c>
       <c r="E160">
-        <v>67.59189605712891</v>
+        <v>68.18926239013672</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>4915744</v>
       </c>
       <c r="G160">
-        <v>69.64593583739668</v>
+        <v>67.67798269043554</v>
       </c>
       <c r="H160">
-        <v>70.38116645812988</v>
+        <v>67.73517799377441</v>
       </c>
       <c r="I160">
-        <v>69.94264119466146</v>
+        <v>67.14692535400391</v>
       </c>
       <c r="J160">
-        <v>70.1429080656454</v>
+        <v>68.26283004976817</v>
       </c>
       <c r="L160">
-        <v>32.54757555631175</v>
+        <v>57.5620817414023</v>
       </c>
       <c r="M160">
-        <v>37.05608071014446</v>
+        <v>56.06980793587861</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -6423,40 +6396,37 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>67.61238098144531</v>
+        <v>68.17775726318359</v>
       </c>
       <c r="C161">
-        <v>67.81578063964844</v>
+        <v>68.20281219482422</v>
       </c>
       <c r="D161">
-        <v>64.41072845458984</v>
+        <v>67.93267059326172</v>
       </c>
       <c r="E161">
-        <v>64.64662933349609</v>
+        <v>68.10987091064453</v>
       </c>
       <c r="F161">
-        <v>28106432</v>
+        <v>1037056</v>
       </c>
       <c r="G161">
-        <v>69.19145342795116</v>
+        <v>67.71724525590909</v>
       </c>
       <c r="H161">
-        <v>70.03628768920899</v>
+        <v>67.78923606872559</v>
       </c>
       <c r="I161">
-        <v>69.80202941894531</v>
+        <v>67.22439626057943</v>
       </c>
       <c r="J161">
-        <v>70.0701096718421</v>
+        <v>68.2608041009056</v>
       </c>
       <c r="L161">
-        <v>21.1552737810996</v>
+        <v>55.95839364164235</v>
       </c>
       <c r="M161">
-        <v>27.45111797520286</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
+        <v>55.17117134565647</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -6464,40 +6434,37 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>64.64902496337891</v>
+        <v>68.09819030761719</v>
       </c>
       <c r="C162">
-        <v>64.93112182617188</v>
+        <v>68.392578125</v>
       </c>
       <c r="D162">
-        <v>63.26130294799805</v>
+        <v>68.01828765869141</v>
       </c>
       <c r="E162">
-        <v>64.82931518554688</v>
+        <v>68.38652801513672</v>
       </c>
       <c r="F162">
-        <v>27994560</v>
+        <v>2263856</v>
       </c>
       <c r="G162">
-        <v>68.7948954059144</v>
+        <v>67.7780891431116</v>
       </c>
       <c r="H162">
-        <v>69.66797828674316</v>
+        <v>67.847163772583</v>
       </c>
       <c r="I162">
-        <v>69.65576960245768</v>
+        <v>67.31645965576172</v>
       </c>
       <c r="J162">
-        <v>70.0006951753349</v>
+        <v>68.26246931831264</v>
       </c>
       <c r="L162">
-        <v>23.03510274844802</v>
+        <v>60.29499160287413</v>
       </c>
       <c r="M162">
-        <v>28.68586164318753</v>
-      </c>
-      <c r="N162" t="s">
-        <v>195</v>
+        <v>57.71448138914735</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -6505,40 +6472,37 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>64.83335876464844</v>
+        <v>68.38204193115234</v>
       </c>
       <c r="C163">
-        <v>65.35124969482422</v>
+        <v>68.47310638427734</v>
       </c>
       <c r="D163">
-        <v>64.38677215576172</v>
+        <v>67.54770660400391</v>
       </c>
       <c r="E163">
-        <v>64.71879577636719</v>
+        <v>68.14961242675781</v>
       </c>
       <c r="F163">
-        <v>5438304</v>
+        <v>6047120</v>
       </c>
       <c r="G163">
-        <v>68.42434089413739</v>
+        <v>67.81186398707943</v>
       </c>
       <c r="H163">
-        <v>69.34999046325683</v>
+        <v>67.92937850952148</v>
       </c>
       <c r="I163">
-        <v>69.57538045247396</v>
+        <v>67.42548039754232</v>
       </c>
       <c r="J163">
-        <v>69.93073624289825</v>
+        <v>68.26097452504702</v>
       </c>
       <c r="L163">
-        <v>22.66728610541745</v>
+        <v>55.07088095936506</v>
       </c>
       <c r="M163">
-        <v>28.3712728648817</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
+        <v>54.84492442416791</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -6546,37 +6510,37 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>64.71221160888672</v>
+        <v>68.1571044921875</v>
       </c>
       <c r="C164">
-        <v>65.46601867675781</v>
+        <v>68.62406921386719</v>
       </c>
       <c r="D164">
-        <v>64.30895233154297</v>
+        <v>68.11007690429688</v>
       </c>
       <c r="E164">
-        <v>65.46303558349609</v>
+        <v>68.44270324707031</v>
       </c>
       <c r="F164">
-        <v>3044608</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>68.15513132044272</v>
+        <v>67.86921301071497</v>
       </c>
       <c r="H164">
-        <v>69.07576217651368</v>
+        <v>67.99874420166016</v>
       </c>
       <c r="I164">
-        <v>69.49130808512369</v>
+        <v>67.51654357910157</v>
       </c>
       <c r="J164">
-        <v>69.87156139972737</v>
+        <v>68.26338152798773</v>
       </c>
       <c r="L164">
-        <v>31.01251749295058</v>
+        <v>59.90564676180068</v>
       </c>
       <c r="M164">
-        <v>33.64826711878622</v>
+        <v>57.65019484428667</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -6584,40 +6548,37 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>65.45223999023438</v>
+        <v>68.44766235351562</v>
       </c>
       <c r="C165">
-        <v>65.80843353271484</v>
+        <v>68.49300384521484</v>
       </c>
       <c r="D165">
-        <v>64.91190338134766</v>
+        <v>67.29065704345703</v>
       </c>
       <c r="E165">
-        <v>64.96874237060547</v>
+        <v>67.48051452636719</v>
       </c>
       <c r="F165">
-        <v>906656</v>
+        <v>4847200</v>
       </c>
       <c r="G165">
-        <v>67.86545959773024</v>
+        <v>67.83387678486517</v>
       </c>
       <c r="H165">
-        <v>68.78771171569824</v>
+        <v>68.01538467407227</v>
       </c>
       <c r="I165">
-        <v>69.39408060709636</v>
+        <v>67.58227310180663</v>
       </c>
       <c r="J165">
-        <v>69.80662339934166</v>
+        <v>68.25301242862852</v>
       </c>
       <c r="L165">
-        <v>28.69853961373575</v>
+        <v>42.86851322263921</v>
       </c>
       <c r="M165">
-        <v>31.96397798914344</v>
-      </c>
-      <c r="N165" t="s">
-        <v>195</v>
+        <v>47.26821679852783</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -6625,37 +6586,37 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>64.96869659423828</v>
+        <v>67.51619720458984</v>
       </c>
       <c r="C166">
-        <v>65.66205596923828</v>
+        <v>67.94332885742188</v>
       </c>
       <c r="D166">
-        <v>64.90651702880859</v>
+        <v>67.23416900634766</v>
       </c>
       <c r="E166">
-        <v>65.34765625</v>
+        <v>67.90840911865234</v>
       </c>
       <c r="F166">
-        <v>7687808</v>
+        <v>7384208</v>
       </c>
       <c r="G166">
-        <v>67.6365683843002</v>
+        <v>67.84065245157309</v>
       </c>
       <c r="H166">
-        <v>68.49023971557617</v>
+        <v>68.00434722900391</v>
       </c>
       <c r="I166">
-        <v>69.28374964396158</v>
+        <v>67.65637868245443</v>
       </c>
       <c r="J166">
-        <v>69.74756423180071</v>
+        <v>68.24844814637719</v>
       </c>
       <c r="L166">
-        <v>33.00921795262739</v>
+        <v>49.98489171380242</v>
       </c>
       <c r="M166">
-        <v>34.66387898662584</v>
+        <v>51.4550406377362</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -6663,37 +6624,37 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>65.34706115722656</v>
+        <v>67.91603851318359</v>
       </c>
       <c r="C167">
-        <v>66.13803863525391</v>
+        <v>68.20845031738281</v>
       </c>
       <c r="D167">
-        <v>65.31946563720703</v>
+        <v>67.81226348876953</v>
       </c>
       <c r="E167">
-        <v>65.7098388671875</v>
+        <v>68.20845031738281</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1427360</v>
       </c>
       <c r="G167">
-        <v>67.46141115547178</v>
+        <v>67.87408862119216</v>
       </c>
       <c r="H167">
-        <v>68.20926704406739</v>
+        <v>68.01050262451172</v>
       </c>
       <c r="I167">
-        <v>69.1792470296224</v>
+        <v>67.74845733642579</v>
       </c>
       <c r="J167">
-        <v>69.69408442564689</v>
+        <v>68.24791837380774</v>
       </c>
       <c r="L167">
-        <v>37.09850654159592</v>
+        <v>54.45971484414724</v>
       </c>
       <c r="M167">
-        <v>37.22804621435482</v>
+        <v>54.20101728405447</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6701,37 +6662,37 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>65.71440887451172</v>
+        <v>68.21055603027344</v>
       </c>
       <c r="C168">
-        <v>65.81833648681641</v>
+        <v>69.79616546630859</v>
       </c>
       <c r="D168">
-        <v>64.908447265625</v>
+        <v>67.60768127441406</v>
       </c>
       <c r="E168">
-        <v>65.40956115722656</v>
+        <v>68.06780242919922</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>80480896</v>
       </c>
       <c r="G168">
-        <v>67.27487933744949</v>
+        <v>67.89169896737462</v>
       </c>
       <c r="H168">
-        <v>67.91032180786132</v>
+        <v>68.00016059875489</v>
       </c>
       <c r="I168">
-        <v>69.01687545776367</v>
+        <v>67.7897450764974</v>
       </c>
       <c r="J168">
-        <v>69.63733577308503</v>
+        <v>68.2455327321573</v>
       </c>
       <c r="L168">
-        <v>35.10007719182845</v>
+        <v>52.00595215130623</v>
       </c>
       <c r="M168">
-        <v>35.96771127127089</v>
+        <v>52.69624974726644</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -6739,37 +6700,37 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>65.41646575927734</v>
+        <v>68.06639862060547</v>
       </c>
       <c r="C169">
-        <v>65.93850708007812</v>
+        <v>68.24006652832031</v>
       </c>
       <c r="D169">
-        <v>65.26864624023438</v>
+        <v>67.23492431640625</v>
       </c>
       <c r="E169">
-        <v>65.70217132568359</v>
+        <v>68.21373748779297</v>
       </c>
       <c r="F169">
-        <v>136608</v>
+        <v>12347360</v>
       </c>
       <c r="G169">
-        <v>67.13190588183441</v>
+        <v>67.92097519650356</v>
       </c>
       <c r="H169">
-        <v>67.64211082458496</v>
+        <v>68.01762886047364</v>
       </c>
       <c r="I169">
-        <v>68.85332438151042</v>
+        <v>67.8299674987793</v>
       </c>
       <c r="J169">
-        <v>69.58521438967574</v>
+        <v>68.24511160309287</v>
       </c>
       <c r="L169">
-        <v>38.71898220201741</v>
+        <v>54.40402644072608</v>
       </c>
       <c r="M169">
-        <v>38.16457972359652</v>
+        <v>54.11956342198795</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -6777,37 +6738,37 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>65.69984436035156</v>
+        <v>68.22641754150391</v>
       </c>
       <c r="C170">
-        <v>66.29458618164062</v>
+        <v>68.37454986572266</v>
       </c>
       <c r="D170">
-        <v>65.45751190185547</v>
+        <v>67.38756561279297</v>
       </c>
       <c r="E170">
-        <v>66.14366149902344</v>
+        <v>67.75328826904297</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>7317472</v>
       </c>
       <c r="G170">
-        <v>67.04206548339705</v>
+        <v>67.90573093037078</v>
       </c>
       <c r="H170">
-        <v>67.40781059265137</v>
+        <v>68.01826286315918</v>
       </c>
       <c r="I170">
-        <v>68.68542455037435</v>
+        <v>67.84748255411783</v>
       </c>
       <c r="J170">
-        <v>69.53963090768035</v>
+        <v>68.23859738674784</v>
       </c>
       <c r="L170">
-        <v>44.01766768119444</v>
+        <v>46.20858184100358</v>
       </c>
       <c r="M170">
-        <v>41.42969716864076</v>
+        <v>49.09971286492492</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -6815,37 +6776,37 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>66.14049530029297</v>
+        <v>67.74880981445312</v>
       </c>
       <c r="C171">
-        <v>66.14049530029297</v>
+        <v>67.78031158447266</v>
       </c>
       <c r="D171">
-        <v>65.45698547363281</v>
+        <v>66.26515960693359</v>
       </c>
       <c r="E171">
-        <v>65.66548919677734</v>
+        <v>66.76045227050781</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>15388096</v>
       </c>
       <c r="G171">
-        <v>66.91692218461344</v>
+        <v>67.80161468856505</v>
       </c>
       <c r="H171">
-        <v>67.16012496948242</v>
+        <v>67.97618522644044</v>
       </c>
       <c r="I171">
-        <v>68.48946736653646</v>
+        <v>67.83854064941406</v>
       </c>
       <c r="J171">
-        <v>69.4883177724366</v>
+        <v>68.21901930573804</v>
       </c>
       <c r="L171">
-        <v>39.82217432220733</v>
+        <v>33.84208094483874</v>
       </c>
       <c r="M171">
-        <v>39.02608426653912</v>
+        <v>40.39846028965451</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -6853,37 +6814,37 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>65.66488647460938</v>
+        <v>66.75057220458984</v>
       </c>
       <c r="C172">
-        <v>65.79764556884766</v>
+        <v>66.86011505126953</v>
       </c>
       <c r="D172">
-        <v>65.27376556396484</v>
+        <v>65.80314636230469</v>
       </c>
       <c r="E172">
-        <v>65.78574371337891</v>
+        <v>66.51374816894531</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>6148576</v>
       </c>
       <c r="G172">
-        <v>66.81408777813758</v>
+        <v>67.68453591405417</v>
       </c>
       <c r="H172">
-        <v>66.8700611114502</v>
+        <v>67.90653686523437</v>
       </c>
       <c r="I172">
-        <v>68.27580871582032</v>
+        <v>67.81473312377929</v>
       </c>
       <c r="J172">
-        <v>69.4392770564226</v>
+        <v>68.1964329330653</v>
       </c>
       <c r="L172">
-        <v>41.40235120556434</v>
+        <v>31.48649028458584</v>
       </c>
       <c r="M172">
-        <v>39.96933592892085</v>
+        <v>38.569395084315</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -6891,37 +6852,37 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>65.78575134277344</v>
+        <v>66.51347351074219</v>
       </c>
       <c r="C173">
-        <v>65.80004119873047</v>
+        <v>66.71873474121094</v>
       </c>
       <c r="D173">
-        <v>65.41243743896484</v>
+        <v>66.36128997802734</v>
       </c>
       <c r="E173">
-        <v>65.62462615966797</v>
+        <v>66.62839508056641</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1578048</v>
       </c>
       <c r="G173">
-        <v>66.70595490373125</v>
+        <v>67.58852311100982</v>
       </c>
       <c r="H173">
-        <v>66.53619842529297</v>
+        <v>67.81771774291992</v>
       </c>
       <c r="I173">
-        <v>68.09401117960611</v>
+        <v>67.8188357035319</v>
       </c>
       <c r="J173">
-        <v>69.38875187898215</v>
+        <v>68.17566421978717</v>
       </c>
       <c r="L173">
-        <v>39.82608064011932</v>
+        <v>33.8921506083712</v>
       </c>
       <c r="M173">
-        <v>39.09666727375534</v>
+        <v>39.93049222572954</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -6929,37 +6890,40 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>65.62541198730469</v>
+        <v>66.61429595947266</v>
       </c>
       <c r="C174">
-        <v>65.71227264404297</v>
+        <v>66.66764068603516</v>
       </c>
       <c r="D174">
-        <v>64.67376708984375</v>
+        <v>66.02067565917969</v>
       </c>
       <c r="E174">
-        <v>64.87899017333984</v>
+        <v>66.035400390625</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>66.5398672009684</v>
+        <v>67.44733013642937</v>
       </c>
       <c r="H174">
-        <v>66.16289710998535</v>
+        <v>67.71371726989746</v>
       </c>
       <c r="I174">
-        <v>67.8917241414388</v>
+        <v>67.78483606974284</v>
       </c>
       <c r="J174">
-        <v>69.32901993586107</v>
+        <v>68.14731635450025</v>
       </c>
       <c r="L174">
-        <v>33.2377688074567</v>
+        <v>28.14227708960951</v>
       </c>
       <c r="M174">
-        <v>35.25984623709872</v>
+        <v>35.54376269405564</v>
+      </c>
+      <c r="N174" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -6967,37 +6931,37 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>64.87532043457031</v>
+        <v>66.03406524658203</v>
       </c>
       <c r="C175">
-        <v>65.71381378173828</v>
+        <v>66.96986389160156</v>
       </c>
       <c r="D175">
-        <v>64.66396331787109</v>
+        <v>66.03406524658203</v>
       </c>
       <c r="E175">
-        <v>65.71080780029297</v>
+        <v>66.74341583251953</v>
       </c>
       <c r="F175">
-        <v>2069856</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>66.46449816454336</v>
+        <v>67.38333792698302</v>
       </c>
       <c r="H175">
-        <v>65.97262153625488</v>
+        <v>67.67727928161621</v>
       </c>
       <c r="I175">
-        <v>67.7244260152181</v>
+        <v>67.77135976155598</v>
       </c>
       <c r="J175">
-        <v>69.28109659631713</v>
+        <v>68.12872164559984</v>
       </c>
       <c r="L175">
-        <v>44.71566843270862</v>
+        <v>41.47815525913101</v>
       </c>
       <c r="M175">
-        <v>42.08776116670752</v>
+        <v>43.52176116793536</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -7005,37 +6969,37 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>65.72445678710938</v>
+        <v>66.73477935791016</v>
       </c>
       <c r="C176">
-        <v>65.85703277587891</v>
+        <v>67.69900512695312</v>
       </c>
       <c r="D176">
-        <v>65.41762542724609</v>
+        <v>66.49789428710938</v>
       </c>
       <c r="E176">
-        <v>65.50862884521484</v>
+        <v>67.63545989990234</v>
       </c>
       <c r="F176">
-        <v>254976</v>
+        <v>1261696</v>
       </c>
       <c r="G176">
-        <v>66.37760095369531</v>
+        <v>67.40625810633932</v>
       </c>
       <c r="H176">
-        <v>65.8206600189209</v>
+        <v>67.68020248413086</v>
       </c>
       <c r="I176">
-        <v>67.53147710164389</v>
+        <v>67.75490315755208</v>
       </c>
       <c r="J176">
-        <v>69.23113013603762</v>
+        <v>68.1221883774449</v>
       </c>
       <c r="L176">
-        <v>42.70795949128928</v>
+        <v>53.66638109539999</v>
       </c>
       <c r="M176">
-        <v>40.95709085664604</v>
+        <v>51.64290921224799</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7043,37 +7007,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>65.49834442138672</v>
+        <v>67.62125396728516</v>
       </c>
       <c r="C177">
-        <v>65.93384552001953</v>
+        <v>68.07456207275391</v>
       </c>
       <c r="D177">
-        <v>65.25973510742188</v>
+        <v>67.39469909667969</v>
       </c>
       <c r="E177">
-        <v>65.68524169921875</v>
+        <v>67.50961303710938</v>
       </c>
       <c r="F177">
-        <v>1441216</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>66.31465920328834</v>
+        <v>67.4156540091366</v>
       </c>
       <c r="H177">
-        <v>65.73559226989747</v>
+        <v>67.681689453125</v>
       </c>
       <c r="I177">
-        <v>67.34334208170573</v>
+        <v>67.73571217854818</v>
       </c>
       <c r="J177">
-        <v>69.18416472627844</v>
+        <v>68.11407479677821</v>
       </c>
       <c r="L177">
-        <v>45.1291106729436</v>
+        <v>51.94922351112596</v>
       </c>
       <c r="M177">
-        <v>42.41248148231156</v>
+        <v>50.53882502372019</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7081,37 +7045,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>65.68373107910156</v>
+        <v>67.51679229736328</v>
       </c>
       <c r="C178">
-        <v>65.74950408935547</v>
+        <v>67.93305206298828</v>
       </c>
       <c r="D178">
-        <v>65.32200622558594</v>
+        <v>67.41259002685547</v>
       </c>
       <c r="E178">
-        <v>65.44609069824219</v>
+        <v>67.78432464599609</v>
       </c>
       <c r="F178">
-        <v>404352</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>66.23569843010233</v>
+        <v>67.44916952157837</v>
       </c>
       <c r="H178">
-        <v>65.64420013427734</v>
+        <v>67.64932632446289</v>
       </c>
       <c r="I178">
-        <v>67.14526290893555</v>
+        <v>67.71936823527018</v>
       </c>
       <c r="J178">
-        <v>69.13465381199981</v>
+        <v>68.10970724511223</v>
       </c>
       <c r="L178">
-        <v>42.39955868017713</v>
+        <v>55.44983788758058</v>
       </c>
       <c r="M178">
-        <v>40.9408363002313</v>
+        <v>52.90571982799219</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7119,37 +7083,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>65.45161437988281</v>
+        <v>67.78714752197266</v>
       </c>
       <c r="C179">
-        <v>66.83551788330078</v>
+        <v>67.96144866943359</v>
       </c>
       <c r="D179">
-        <v>65.45161437988281</v>
+        <v>67.63165283203125</v>
       </c>
       <c r="E179">
-        <v>66.82917022705078</v>
+        <v>67.90301513671875</v>
       </c>
       <c r="F179">
-        <v>15498304</v>
+        <v>240000</v>
       </c>
       <c r="G179">
-        <v>66.28965041164309</v>
+        <v>67.49042821386385</v>
       </c>
       <c r="H179">
-        <v>65.58330459594727</v>
+        <v>67.62120018005371</v>
       </c>
       <c r="I179">
-        <v>67.00402221679687</v>
+        <v>67.72065633138021</v>
       </c>
       <c r="J179">
-        <v>69.10411760557665</v>
+        <v>68.10696960129246</v>
       </c>
       <c r="L179">
-        <v>58.66538056036195</v>
+        <v>56.9734412081305</v>
       </c>
       <c r="M179">
-        <v>51.43588667561075</v>
+        <v>53.93147203261148</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7157,37 +7121,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>66.83074188232422</v>
+        <v>67.90409851074219</v>
       </c>
       <c r="C180">
-        <v>67.01071166992188</v>
+        <v>67.95655059814453</v>
       </c>
       <c r="D180">
-        <v>66.44023895263672</v>
+        <v>67.66442108154297</v>
       </c>
       <c r="E180">
-        <v>67.00706481933594</v>
+        <v>67.91262054443359</v>
       </c>
       <c r="F180">
-        <v>5252208</v>
+        <v>2871264</v>
       </c>
       <c r="G180">
-        <v>66.35486990325153</v>
+        <v>67.52880933482474</v>
       </c>
       <c r="H180">
-        <v>65.55406303405762</v>
+        <v>67.60736808776855</v>
       </c>
       <c r="I180">
-        <v>66.87660217285156</v>
+        <v>67.7263900756836</v>
       </c>
       <c r="J180">
-        <v>69.07634207198406</v>
+        <v>68.10439544159897</v>
       </c>
       <c r="L180">
-        <v>60.28808400482725</v>
+        <v>57.10699661642926</v>
       </c>
       <c r="M180">
-        <v>52.60256820264267</v>
+        <v>54.01875702225468</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7195,37 +7159,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>67.00637054443359</v>
+        <v>67.91140747070312</v>
       </c>
       <c r="C181">
-        <v>67.50267791748047</v>
+        <v>68.31604766845703</v>
       </c>
       <c r="D181">
-        <v>66.97577667236328</v>
+        <v>67.59389495849609</v>
       </c>
       <c r="E181">
-        <v>67.22783660888672</v>
+        <v>68.31604766845703</v>
       </c>
       <c r="F181">
-        <v>6321760</v>
+        <v>6486928</v>
       </c>
       <c r="G181">
-        <v>66.43423051285473</v>
+        <v>67.60037645606404</v>
       </c>
       <c r="H181">
-        <v>65.68312339782715</v>
+        <v>67.61767692565918</v>
       </c>
       <c r="I181">
-        <v>66.76355667114258</v>
+        <v>67.75019149780273</v>
       </c>
       <c r="J181">
-        <v>69.05185855591655</v>
+        <v>68.10719878235206</v>
       </c>
       <c r="L181">
-        <v>62.3515876260681</v>
+        <v>62.59325875301381</v>
       </c>
       <c r="M181">
-        <v>54.07702610358081</v>
+        <v>57.64820845611487</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7233,37 +7197,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>67.23495483398438</v>
+        <v>68.31732940673828</v>
       </c>
       <c r="C182">
-        <v>67.36491394042969</v>
+        <v>68.34182739257812</v>
       </c>
       <c r="D182">
-        <v>66.87297058105469</v>
+        <v>68.17292022705078</v>
       </c>
       <c r="E182">
-        <v>66.92778015136719</v>
+        <v>68.21918487548828</v>
       </c>
       <c r="F182">
-        <v>4178432</v>
+        <v>811632</v>
       </c>
       <c r="G182">
-        <v>66.47909866181041</v>
+        <v>67.65663176692078</v>
       </c>
       <c r="H182">
-        <v>65.78804664611816</v>
+        <v>67.60930976867675</v>
       </c>
       <c r="I182">
-        <v>66.60824864705404</v>
+        <v>67.7606071472168</v>
       </c>
       <c r="J182">
-        <v>69.02372506711458</v>
+        <v>68.1086820418638</v>
       </c>
       <c r="L182">
-        <v>57.76234388695188</v>
+        <v>60.50294709291526</v>
       </c>
       <c r="M182">
-        <v>51.7219935980219</v>
+        <v>56.49515858638046</v>
       </c>
     </row>
   </sheetData>
